--- a/Data/ALL_CP_Culture_Data 2022.xlsx
+++ b/Data/ALL_CP_Culture_Data 2022.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darre\Documents\R\Data\CR Exps\DATA\R_Data Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DarrenThesis\Darren\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F82BE388-3D2B-499C-AF44-BCD0D3769A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB337758-312A-4F53-BB60-3700679828A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77062A99-CC95-47EE-A3E9-5DFE73B194B8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{77062A99-CC95-47EE-A3E9-5DFE73B194B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="UseThis" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
   <si>
     <t>Sample</t>
   </si>
@@ -158,6 +160,9 @@
   </si>
   <si>
     <t>287*6</t>
+  </si>
+  <si>
+    <t>CR</t>
   </si>
 </sst>
 </file>
@@ -11021,8 +11026,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Sheet1"/>
     </sheetNames>
@@ -11338,13 +11346,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACDFF9A-4F25-4762-BFAD-2150BEEC0DF9}">
   <dimension ref="A1:AF140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AH39" sqref="AH39"/>
+    <sheetView topLeftCell="A75" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A137" activeCellId="2" sqref="A73:M74 A114:M115 A137:M139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11385,7 +11393,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -11438,7 +11446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>5</v>
       </c>
@@ -11491,7 +11499,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>7</v>
       </c>
@@ -11544,7 +11552,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>10</v>
       </c>
@@ -11597,7 +11605,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -11656,7 +11664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -11703,7 +11711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -11756,7 +11764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>3</v>
       </c>
@@ -11827,7 +11835,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>4</v>
       </c>
@@ -11924,7 +11932,7 @@
         <v>3.229696078104483</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -12003,7 +12011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -12082,7 +12090,7 @@
         <v>1.8479601398162104</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -12155,7 +12163,7 @@
         <v>1.3314938586242697</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -12202,7 +12210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -12262,7 +12270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -12346,7 +12354,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>3</v>
       </c>
@@ -12422,7 +12430,7 @@
         <v>6.181784874690825</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>4</v>
       </c>
@@ -12482,7 +12490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>8</v>
       </c>
@@ -12574,7 +12582,7 @@
         <v>1.6597324533298834</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>7</v>
       </c>
@@ -12634,7 +12642,7 @@
         <v>4.8464768845440522</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>1</v>
       </c>
@@ -12681,7 +12689,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>2</v>
       </c>
@@ -12735,7 +12743,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>3</v>
       </c>
@@ -12795,7 +12803,7 @@
         <v>46.071428571428569</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>4</v>
       </c>
@@ -12855,7 +12863,7 @@
         <v>13.556933720242336</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>6</v>
       </c>
@@ -12899,7 +12907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>3</v>
       </c>
@@ -12953,7 +12961,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>5</v>
       </c>
@@ -13013,7 +13021,7 @@
         <v>51.955798738089598</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>7</v>
       </c>
@@ -13073,7 +13081,7 @@
         <v>7.1306009315554553</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>8</v>
       </c>
@@ -13114,7 +13122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>4</v>
       </c>
@@ -13155,7 +13163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>10</v>
       </c>
@@ -13196,7 +13204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>1</v>
       </c>
@@ -13237,7 +13245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>2</v>
       </c>
@@ -13281,7 +13289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>9</v>
       </c>
@@ -13333,7 +13341,7 @@
         <v>0.99287661113373038</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2</v>
       </c>
@@ -13385,7 +13393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>5</v>
       </c>
@@ -13437,7 +13445,7 @@
         <v>0.20167561498777514</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>3</v>
       </c>
@@ -13489,7 +13497,7 @@
         <v>8.5039708448443649E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>4</v>
       </c>
@@ -13539,7 +13547,7 @@
         <v>2.4417800000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>1</v>
       </c>
@@ -13580,7 +13588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>3</v>
       </c>
@@ -13624,7 +13632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>5</v>
       </c>
@@ -13676,7 +13684,7 @@
         <v>1.2926795329438632</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>1</v>
       </c>
@@ -13728,7 +13736,7 @@
         <v>5.0870964775671252</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <v>1</v>
       </c>
@@ -13780,7 +13788,7 @@
         <v>1.9383936563058975E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="31">
         <v>2</v>
       </c>
@@ -13832,7 +13840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="18">
         <v>6</v>
       </c>
@@ -13884,7 +13892,7 @@
         <v>4.1580449140768962</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
         <v>7</v>
       </c>
@@ -13936,7 +13944,7 @@
         <v>9.938928656823931</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
         <v>10</v>
       </c>
@@ -13977,7 +13985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2</v>
       </c>
@@ -14018,7 +14026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>3</v>
       </c>
@@ -14059,7 +14067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>6</v>
       </c>
@@ -14100,7 +14108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>8</v>
       </c>
@@ -14141,7 +14149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>9</v>
       </c>
@@ -14182,7 +14190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>10</v>
       </c>
@@ -14223,7 +14231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>1</v>
       </c>
@@ -14264,7 +14272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>2</v>
       </c>
@@ -14305,7 +14313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>3</v>
       </c>
@@ -14346,7 +14354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>5</v>
       </c>
@@ -14387,7 +14395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>6</v>
       </c>
@@ -14428,7 +14436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>7</v>
       </c>
@@ -14469,7 +14477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>1</v>
       </c>
@@ -14510,7 +14518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>2</v>
       </c>
@@ -14551,7 +14559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>5</v>
       </c>
@@ -14592,7 +14600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <v>8</v>
       </c>
@@ -14633,7 +14641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>10</v>
       </c>
@@ -14674,7 +14682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>1</v>
       </c>
@@ -14715,7 +14723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>2</v>
       </c>
@@ -14756,7 +14764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>4</v>
       </c>
@@ -14797,7 +14805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>2</v>
       </c>
@@ -14838,7 +14846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>5</v>
       </c>
@@ -14879,7 +14887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>6</v>
       </c>
@@ -14920,7 +14928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>4</v>
       </c>
@@ -14961,7 +14969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>10</v>
       </c>
@@ -15002,7 +15010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>2</v>
       </c>
@@ -15043,7 +15051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>6</v>
       </c>
@@ -15084,7 +15092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>2</v>
       </c>
@@ -15125,7 +15133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>6</v>
       </c>
@@ -15166,7 +15174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>7</v>
       </c>
@@ -15207,7 +15215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>8</v>
       </c>
@@ -15248,7 +15256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>9</v>
       </c>
@@ -15289,7 +15297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>2</v>
       </c>
@@ -15330,7 +15338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>4</v>
       </c>
@@ -15371,7 +15379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>7</v>
       </c>
@@ -15412,7 +15420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>1</v>
       </c>
@@ -15453,7 +15461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>3</v>
       </c>
@@ -15494,7 +15502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>4</v>
       </c>
@@ -15535,7 +15543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>6</v>
       </c>
@@ -15576,7 +15584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>7</v>
       </c>
@@ -15617,7 +15625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>9</v>
       </c>
@@ -15658,7 +15666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>1</v>
       </c>
@@ -15699,7 +15707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>6</v>
       </c>
@@ -15740,7 +15748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>9</v>
       </c>
@@ -15781,7 +15789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>2</v>
       </c>
@@ -15822,7 +15830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>3</v>
       </c>
@@ -15863,7 +15871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>5</v>
       </c>
@@ -15904,7 +15912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>7</v>
       </c>
@@ -15945,7 +15953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>8</v>
       </c>
@@ -15986,7 +15994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>3</v>
       </c>
@@ -16027,7 +16035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>7</v>
       </c>
@@ -16068,7 +16076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>1</v>
       </c>
@@ -16109,7 +16117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>2</v>
       </c>
@@ -16150,7 +16158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>3</v>
       </c>
@@ -16191,7 +16199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>1</v>
       </c>
@@ -16232,7 +16240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>3</v>
       </c>
@@ -16273,7 +16281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>5</v>
       </c>
@@ -16314,7 +16322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>6</v>
       </c>
@@ -16355,7 +16363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>1</v>
       </c>
@@ -16396,7 +16404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>3</v>
       </c>
@@ -16437,7 +16445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>4</v>
       </c>
@@ -16478,7 +16486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>1</v>
       </c>
@@ -16519,7 +16527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>2</v>
       </c>
@@ -16560,7 +16568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>3</v>
       </c>
@@ -16601,7 +16609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>4</v>
       </c>
@@ -16642,7 +16650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>4</v>
       </c>
@@ -16683,7 +16691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>2</v>
       </c>
@@ -16724,7 +16732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>4</v>
       </c>
@@ -16765,7 +16773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>1</v>
       </c>
@@ -16806,7 +16814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>2</v>
       </c>
@@ -16847,7 +16855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>4</v>
       </c>
@@ -16888,7 +16896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>6</v>
       </c>
@@ -16929,7 +16937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>7</v>
       </c>
@@ -16970,7 +16978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>1</v>
       </c>
@@ -17011,7 +17019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>3</v>
       </c>
@@ -17052,7 +17060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>5</v>
       </c>
@@ -17093,7 +17101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>6</v>
       </c>
@@ -17134,7 +17142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>1</v>
       </c>
@@ -17175,7 +17183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>2</v>
       </c>
@@ -17216,7 +17224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>4</v>
       </c>
@@ -17257,7 +17265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>5</v>
       </c>
@@ -17298,7 +17306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>6</v>
       </c>
@@ -17339,7 +17347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>7</v>
       </c>
@@ -17380,7 +17388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>1</v>
       </c>
@@ -17421,7 +17429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>3</v>
       </c>
@@ -17462,7 +17470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
         <v>4</v>
       </c>
@@ -17503,7 +17511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
         <v>5</v>
       </c>
@@ -17544,7 +17552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>6</v>
       </c>
@@ -17585,7 +17593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>7</v>
       </c>
@@ -17626,7 +17634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>1</v>
       </c>
@@ -17667,7 +17675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>3</v>
       </c>
@@ -17708,7 +17716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
         <v>6</v>
       </c>
@@ -17749,7 +17757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C140" s="29"/>
       <c r="G140" s="12"/>
     </row>
@@ -17758,4 +17766,6524 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E248E2C6-A31E-4A1B-A640-2E09DD25018E}">
+  <dimension ref="A1:M118"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F124" sqref="F124"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>250</v>
+      </c>
+      <c r="D2" s="2">
+        <v>248</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.3770359727097246E-2</v>
+      </c>
+      <c r="G2">
+        <v>2.5516999999999939E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.53965433738673352</v>
+      </c>
+      <c r="I2">
+        <v>0.53965433738673352</v>
+      </c>
+      <c r="J2">
+        <v>36</v>
+      </c>
+      <c r="K2">
+        <v>29</v>
+      </c>
+      <c r="L2">
+        <v>55.384615384615387</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>250</v>
+      </c>
+      <c r="D3" s="2">
+        <v>262</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2.238050631913166E-3</v>
+      </c>
+      <c r="G3">
+        <v>1.6446000000000027E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.1360848006757365</v>
+      </c>
+      <c r="I3">
+        <v>0.1360848006757365</v>
+      </c>
+      <c r="J3">
+        <v>60</v>
+      </c>
+      <c r="K3">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>76.923076923076934</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>7</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C4" s="2">
+        <v>250</v>
+      </c>
+      <c r="D4" s="2">
+        <v>252</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-4.18337257390798E-2</v>
+      </c>
+      <c r="G4">
+        <v>2.0468000000000073E-2</v>
+      </c>
+      <c r="H4">
+        <v>-2.0438599638010384</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <v>36</v>
+      </c>
+      <c r="L4">
+        <v>52.631578947368418</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>250</v>
+      </c>
+      <c r="D5" s="2">
+        <v>211</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4.7700188391769517E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.1401000000000066E-2</v>
+      </c>
+      <c r="H5">
+        <v>2.228876612857781</v>
+      </c>
+      <c r="I5">
+        <v>2.228876612857781</v>
+      </c>
+      <c r="J5">
+        <v>60</v>
+      </c>
+      <c r="K5">
+        <v>135</v>
+      </c>
+      <c r="L5">
+        <v>30.76923076923077</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>250</v>
+      </c>
+      <c r="D6" s="2">
+        <v>276</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-5.2173479523821668E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.9160999999999992E-2</v>
+      </c>
+      <c r="H6">
+        <v>-1.7891526190398712</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>60</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="C7" s="2">
+        <v>250</v>
+      </c>
+      <c r="D7" s="2">
+        <v>170</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7.1994276722112491E-2</v>
+      </c>
+      <c r="G7">
+        <v>2.379600000000015E-2</v>
+      </c>
+      <c r="H7">
+        <v>3.0254780938860328</v>
+      </c>
+      <c r="I7">
+        <v>3.0254780938860328</v>
+      </c>
+      <c r="J7">
+        <v>47</v>
+      </c>
+      <c r="K7">
+        <v>42</v>
+      </c>
+      <c r="L7">
+        <v>52.80898876404494</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>250</v>
+      </c>
+      <c r="D8" s="2">
+        <v>279</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-5.4443771905706956E-2</v>
+      </c>
+      <c r="G8">
+        <v>8.8289999999999758E-3</v>
+      </c>
+      <c r="H8">
+        <v>-6.1664709373323259</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>60</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>95.238095238095227</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>250</v>
+      </c>
+      <c r="D9" s="2">
+        <v>258</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-6.2417206067518965E-2</v>
+      </c>
+      <c r="G9">
+        <v>3.9018999999999915E-2</v>
+      </c>
+      <c r="H9">
+        <v>-1.5996618587744202</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>36</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>92.307692307692307</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>250</v>
+      </c>
+      <c r="D10">
+        <v>454</v>
+      </c>
+      <c r="E10">
+        <v>0.21</v>
+      </c>
+      <c r="F10">
+        <v>-3.2700080016271907E-2</v>
+      </c>
+      <c r="G10">
+        <v>3.2972999999999919E-2</v>
+      </c>
+      <c r="H10">
+        <v>-0.991722925310769</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>60</v>
+      </c>
+      <c r="K10">
+        <v>35</v>
+      </c>
+      <c r="L10">
+        <v>63.157894736842103</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>250</v>
+      </c>
+      <c r="D11">
+        <v>319</v>
+      </c>
+      <c r="E11">
+        <v>0.21</v>
+      </c>
+      <c r="F11">
+        <v>2.9025961211500584E-2</v>
+      </c>
+      <c r="G11">
+        <v>3.5981000000000041E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.80670245995110057</v>
+      </c>
+      <c r="I11">
+        <v>0.80670245995110057</v>
+      </c>
+      <c r="J11">
+        <v>60</v>
+      </c>
+      <c r="K11">
+        <v>127</v>
+      </c>
+      <c r="L11">
+        <v>32.085561497326204</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>250</v>
+      </c>
+      <c r="D12">
+        <v>557</v>
+      </c>
+      <c r="E12">
+        <v>0.21</v>
+      </c>
+      <c r="F12">
+        <v>-8.9333048232530049E-2</v>
+      </c>
+      <c r="G12">
+        <v>2.8032999999999975E-2</v>
+      </c>
+      <c r="H12">
+        <v>-3.1867102426615106</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>60</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <v>75</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>250</v>
+      </c>
+      <c r="D13">
+        <v>409</v>
+      </c>
+      <c r="E13">
+        <v>0.21</v>
+      </c>
+      <c r="F13">
+        <v>-2.3164089972670408E-2</v>
+      </c>
+      <c r="G13">
+        <v>3.2461000000000073E-2</v>
+      </c>
+      <c r="H13">
+        <v>-0.71359754698470024</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>60</v>
+      </c>
+      <c r="K13">
+        <v>62</v>
+      </c>
+      <c r="L13">
+        <v>49.180327868852459</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>250</v>
+      </c>
+      <c r="D14">
+        <v>507</v>
+      </c>
+      <c r="E14">
+        <v>0.21</v>
+      </c>
+      <c r="F14">
+        <v>-4.4011164551552059E-2</v>
+      </c>
+      <c r="G14">
+        <v>9.2178999999999997E-2</v>
+      </c>
+      <c r="H14">
+        <v>-0.47745326540266286</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>60</v>
+      </c>
+      <c r="K14">
+        <v>34</v>
+      </c>
+      <c r="L14">
+        <v>63.829787234042556</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="C15" s="2">
+        <v>250</v>
+      </c>
+      <c r="D15">
+        <v>595</v>
+      </c>
+      <c r="E15">
+        <v>0.22</v>
+      </c>
+      <c r="F15">
+        <v>-0.17995945276951061</v>
+      </c>
+      <c r="G15">
+        <v>3.5811000000000003E-2</v>
+      </c>
+      <c r="H15">
+        <v>-5.0252562835304966</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>32</v>
+      </c>
+      <c r="K15">
+        <v>51</v>
+      </c>
+      <c r="L15">
+        <v>38.554216867469883</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>1</v>
+      </c>
+      <c r="B16" s="18">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>250</v>
+      </c>
+      <c r="D16" s="19">
+        <v>192</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0.21</v>
+      </c>
+      <c r="F16">
+        <v>9.1078313353679469E-2</v>
+      </c>
+      <c r="G16" s="13">
+        <v>2.0635000000000001E-2</v>
+      </c>
+      <c r="H16">
+        <v>4.4137782095313529</v>
+      </c>
+      <c r="I16">
+        <v>4.4137782095313529</v>
+      </c>
+      <c r="J16">
+        <v>60</v>
+      </c>
+      <c r="K16">
+        <v>14</v>
+      </c>
+      <c r="L16">
+        <v>81.081081081081081</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
+        <v>2</v>
+      </c>
+      <c r="B17" s="18">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="C17" s="2">
+        <v>250</v>
+      </c>
+      <c r="D17" s="32">
+        <v>202</v>
+      </c>
+      <c r="E17" s="32">
+        <v>0.23</v>
+      </c>
+      <c r="F17">
+        <v>0.75888069586596008</v>
+      </c>
+      <c r="G17" s="13">
+        <v>3.2239999999999998E-2</v>
+      </c>
+      <c r="H17">
+        <v>23.538483122393306</v>
+      </c>
+      <c r="I17">
+        <v>23.538483122393306</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>27</v>
+      </c>
+      <c r="L17">
+        <v>20.588235294117645</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>6</v>
+      </c>
+      <c r="B18" s="18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>250</v>
+      </c>
+      <c r="D18" s="19">
+        <v>190</v>
+      </c>
+      <c r="E18" s="19">
+        <v>0.21</v>
+      </c>
+      <c r="F18">
+        <v>9.3277286325811504E-2</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1.9604E-2</v>
+      </c>
+      <c r="H18">
+        <v>4.7580741851566772</v>
+      </c>
+      <c r="I18">
+        <v>4.7580741851566772</v>
+      </c>
+      <c r="J18">
+        <v>60</v>
+      </c>
+      <c r="K18">
+        <v>23</v>
+      </c>
+      <c r="L18">
+        <v>72.289156626506028</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>7</v>
+      </c>
+      <c r="B19" s="18">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>250</v>
+      </c>
+      <c r="D19" s="19">
+        <v>347</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0.21</v>
+      </c>
+      <c r="F19">
+        <v>-3.3205862309326852E-2</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1.5931000000000001E-2</v>
+      </c>
+      <c r="H19">
+        <v>-2.0843551760295558</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>60</v>
+      </c>
+      <c r="K19">
+        <v>21</v>
+      </c>
+      <c r="L19">
+        <v>74.074074074074076</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>10</v>
+      </c>
+      <c r="B20" s="18">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>250</v>
+      </c>
+      <c r="D20" s="19">
+        <v>313</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0.21</v>
+      </c>
+      <c r="F20">
+        <v>-1.1550328533918601E-2</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1.6160999999999998E-2</v>
+      </c>
+      <c r="H20">
+        <v>-0.71470382611958427</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>60</v>
+      </c>
+      <c r="K20">
+        <v>11</v>
+      </c>
+      <c r="L20">
+        <v>84.507042253521121</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>7</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>500</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1007</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="F21" s="4">
+        <v>-0.57460671018948961</v>
+      </c>
+      <c r="G21">
+        <v>6.797299999999995E-2</v>
+      </c>
+      <c r="H21">
+        <v>-8.4534551982329749</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>52</v>
+      </c>
+      <c r="L21">
+        <v>25.714285714285712</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>500</v>
+      </c>
+      <c r="D22" s="3">
+        <v>152</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.23574293639037802</v>
+      </c>
+      <c r="G22">
+        <v>4.0791999999999939E-2</v>
+      </c>
+      <c r="H22">
+        <v>5.7791463127666791</v>
+      </c>
+      <c r="I22">
+        <v>5.7791463127666791</v>
+      </c>
+      <c r="J22">
+        <v>60</v>
+      </c>
+      <c r="K22">
+        <v>42</v>
+      </c>
+      <c r="L22">
+        <v>58.82352941176471</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>500</v>
+      </c>
+      <c r="D23" s="3">
+        <v>274</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.1120009434266013</v>
+      </c>
+      <c r="G23">
+        <v>1.7208999999999919E-2</v>
+      </c>
+      <c r="H23">
+        <v>6.5082772634436532</v>
+      </c>
+      <c r="I23">
+        <v>6.5082772634436532</v>
+      </c>
+      <c r="J23">
+        <v>60</v>
+      </c>
+      <c r="K23">
+        <v>11</v>
+      </c>
+      <c r="L23">
+        <v>84.507042253521121</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="C24" s="3">
+        <v>500</v>
+      </c>
+      <c r="D24" s="3">
+        <v>478</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5.225794898903996E-2</v>
+      </c>
+      <c r="G24">
+        <v>2.4128000000000038E-2</v>
+      </c>
+      <c r="H24">
+        <v>2.165863270434345</v>
+      </c>
+      <c r="I24">
+        <v>2.165863270434345</v>
+      </c>
+      <c r="J24">
+        <v>11</v>
+      </c>
+      <c r="K24">
+        <v>17</v>
+      </c>
+      <c r="L24">
+        <v>39.285714285714285</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="C25" s="3">
+        <v>500</v>
+      </c>
+      <c r="D25" s="3">
+        <v>196</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.5750776378401109</v>
+      </c>
+      <c r="G25">
+        <v>3.9474000000000009E-2</v>
+      </c>
+      <c r="H25">
+        <v>14.568516943813922</v>
+      </c>
+      <c r="I25">
+        <v>14.568516943813922</v>
+      </c>
+      <c r="J25">
+        <v>23</v>
+      </c>
+      <c r="K25">
+        <v>32</v>
+      </c>
+      <c r="L25">
+        <v>41.818181818181813</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>4</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="C26" s="3">
+        <v>500</v>
+      </c>
+      <c r="D26" s="4">
+        <v>594</v>
+      </c>
+      <c r="E26">
+        <v>0.22</v>
+      </c>
+      <c r="F26">
+        <v>-7.1138258634590862E-3</v>
+      </c>
+      <c r="G26">
+        <v>3.5749000000000031E-2</v>
+      </c>
+      <c r="H26">
+        <v>-0.19899370229822036</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>22</v>
+      </c>
+      <c r="K26">
+        <v>7</v>
+      </c>
+      <c r="L26">
+        <v>75.862068965517238</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>10</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>500</v>
+      </c>
+      <c r="D27">
+        <v>758</v>
+      </c>
+      <c r="E27">
+        <v>0.21</v>
+      </c>
+      <c r="F27">
+        <v>-5.4873239733698939E-2</v>
+      </c>
+      <c r="G27">
+        <v>1.5068000000000081E-2</v>
+      </c>
+      <c r="H27">
+        <v>-3.6417069109170854</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>60</v>
+      </c>
+      <c r="K27">
+        <v>145</v>
+      </c>
+      <c r="L27">
+        <v>29.268292682926827</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>500</v>
+      </c>
+      <c r="D28">
+        <v>354</v>
+      </c>
+      <c r="E28">
+        <v>0.21</v>
+      </c>
+      <c r="F28">
+        <v>-0.13233436214644734</v>
+      </c>
+      <c r="G28">
+        <v>9.8817000000000002E-2</v>
+      </c>
+      <c r="H28">
+        <v>-1.3391861941411634</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>60</v>
+      </c>
+      <c r="K28">
+        <v>19</v>
+      </c>
+      <c r="L28">
+        <v>75.949367088607602</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>5</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C29" s="3">
+        <v>500</v>
+      </c>
+      <c r="D29">
+        <v>161</v>
+      </c>
+      <c r="E29">
+        <v>0.23</v>
+      </c>
+      <c r="F29">
+        <v>0.94267596164214762</v>
+      </c>
+      <c r="G29">
+        <v>6.1010000000000002E-2</v>
+      </c>
+      <c r="H29">
+        <v>15.451171310312205</v>
+      </c>
+      <c r="I29">
+        <v>15.451171310312205</v>
+      </c>
+      <c r="J29">
+        <v>15</v>
+      </c>
+      <c r="K29">
+        <v>46</v>
+      </c>
+      <c r="L29">
+        <v>24.590163934426229</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="C30" s="3">
+        <v>500</v>
+      </c>
+      <c r="D30">
+        <v>754</v>
+      </c>
+      <c r="E30">
+        <v>0.22</v>
+      </c>
+      <c r="F30">
+        <v>-0.17971880412396113</v>
+      </c>
+      <c r="G30" s="12">
+        <v>8.9411000000000004E-2</v>
+      </c>
+      <c r="H30">
+        <v>-2.0100301319072722</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>32</v>
+      </c>
+      <c r="K30">
+        <v>59</v>
+      </c>
+      <c r="L30">
+        <v>35.164835164835168</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>3</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="C31" s="3">
+        <v>500</v>
+      </c>
+      <c r="D31">
+        <v>568</v>
+      </c>
+      <c r="E31">
+        <v>0.21</v>
+      </c>
+      <c r="F31">
+        <v>-1.9449056950368509E-2</v>
+      </c>
+      <c r="G31">
+        <v>2.6755000000000001E-2</v>
+      </c>
+      <c r="H31">
+        <v>-0.72693167446714668</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>52</v>
+      </c>
+      <c r="K31">
+        <v>17</v>
+      </c>
+      <c r="L31">
+        <v>75.362318840579718</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>5</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="C32" s="3">
+        <v>500</v>
+      </c>
+      <c r="D32">
+        <v>498</v>
+      </c>
+      <c r="E32">
+        <v>0.23</v>
+      </c>
+      <c r="F32">
+        <v>-2.7702482019875962E-3</v>
+      </c>
+      <c r="G32">
+        <v>7.7609999999999997E-3</v>
+      </c>
+      <c r="H32">
+        <v>-0.35694474964406603</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>16</v>
+      </c>
+      <c r="K32">
+        <v>7</v>
+      </c>
+      <c r="L32">
+        <v>69.565217391304344</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>2</v>
+      </c>
+      <c r="B33" s="20">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="C33" s="3">
+        <v>500</v>
+      </c>
+      <c r="D33">
+        <v>581</v>
+      </c>
+      <c r="E33">
+        <v>0.22</v>
+      </c>
+      <c r="F33">
+        <v>-3.6077937885804733E-2</v>
+      </c>
+      <c r="G33" s="13">
+        <v>2.2955E-2</v>
+      </c>
+      <c r="H33">
+        <v>-1.5716810231237086</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>37</v>
+      </c>
+      <c r="K33">
+        <v>34</v>
+      </c>
+      <c r="L33">
+        <v>52.112676056338024</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>3</v>
+      </c>
+      <c r="B34" s="21">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C34" s="3">
+        <v>500</v>
+      </c>
+      <c r="D34">
+        <v>552</v>
+      </c>
+      <c r="E34">
+        <v>0.23</v>
+      </c>
+      <c r="F34">
+        <v>-2.8216287885334118E-3</v>
+      </c>
+      <c r="G34" s="13">
+        <v>1.9504000000000001E-2</v>
+      </c>
+      <c r="H34">
+        <v>-0.14466923649166386</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>20</v>
+      </c>
+      <c r="K34">
+        <v>14</v>
+      </c>
+      <c r="L34">
+        <v>58.82352941176471</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>6</v>
+      </c>
+      <c r="B35" s="20">
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="C35" s="3">
+        <v>500</v>
+      </c>
+      <c r="D35">
+        <v>635</v>
+      </c>
+      <c r="E35">
+        <v>0.23</v>
+      </c>
+      <c r="F35">
+        <v>-0.14377364763492886</v>
+      </c>
+      <c r="G35" s="13">
+        <v>2.9944999999999999E-2</v>
+      </c>
+      <c r="H35">
+        <v>-4.8012572260787731</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>17</v>
+      </c>
+      <c r="K35">
+        <v>49</v>
+      </c>
+      <c r="L35">
+        <v>25.757575757575758</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="20">
+        <v>8</v>
+      </c>
+      <c r="B36" s="20">
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="C36" s="3">
+        <v>500</v>
+      </c>
+      <c r="D36" s="19">
+        <v>566</v>
+      </c>
+      <c r="E36" s="19">
+        <v>0.21</v>
+      </c>
+      <c r="F36">
+        <v>-2.2137617662481721E-2</v>
+      </c>
+      <c r="G36" s="13">
+        <v>1.8863999999999999E-2</v>
+      </c>
+      <c r="H36">
+        <v>-1.1735378319805831</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>47</v>
+      </c>
+      <c r="K36">
+        <v>61</v>
+      </c>
+      <c r="L36">
+        <v>43.518518518518519</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>9</v>
+      </c>
+      <c r="B37" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="C37" s="3">
+        <v>500</v>
+      </c>
+      <c r="D37">
+        <v>554</v>
+      </c>
+      <c r="E37">
+        <v>0.22</v>
+      </c>
+      <c r="F37">
+        <v>-2.1644038314271842E-2</v>
+      </c>
+      <c r="G37" s="13">
+        <v>1.8785E-2</v>
+      </c>
+      <c r="H37">
+        <v>-1.1521979406053682</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>30</v>
+      </c>
+      <c r="K37">
+        <v>38</v>
+      </c>
+      <c r="L37">
+        <v>44.117647058823529</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
+        <v>10</v>
+      </c>
+      <c r="B38" s="23">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="C38" s="3">
+        <v>500</v>
+      </c>
+      <c r="D38" s="17">
+        <v>559</v>
+      </c>
+      <c r="E38" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="F38" s="17">
+        <v>-2.6839742123204849E-2</v>
+      </c>
+      <c r="G38" s="13">
+        <v>1.2359E-2</v>
+      </c>
+      <c r="H38">
+        <v>-2.1716758737118576</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>28</v>
+      </c>
+      <c r="K38">
+        <v>88</v>
+      </c>
+      <c r="L38">
+        <v>24.137931034482758</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <v>3</v>
+      </c>
+      <c r="B39" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="C39" s="4">
+        <v>750</v>
+      </c>
+      <c r="D39" s="15">
+        <v>909</v>
+      </c>
+      <c r="E39" s="17">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="F39" s="17">
+        <v>-5.8826921159041728E-2</v>
+      </c>
+      <c r="G39">
+        <v>5.540000000000077E-3</v>
+      </c>
+      <c r="H39">
+        <v>-10.618577826541681</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>27</v>
+      </c>
+      <c r="K39">
+        <v>44</v>
+      </c>
+      <c r="L39">
+        <v>38.028169014084504</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>4</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="C40" s="4">
+        <v>750</v>
+      </c>
+      <c r="D40" s="5">
+        <v>959</v>
+      </c>
+      <c r="E40">
+        <v>0.21</v>
+      </c>
+      <c r="F40">
+        <v>-4.5346265905129163E-2</v>
+      </c>
+      <c r="G40">
+        <v>4.3815000000000055E-2</v>
+      </c>
+      <c r="H40">
+        <v>-1.0349484401490152</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>56</v>
+      </c>
+      <c r="K40">
+        <v>53</v>
+      </c>
+      <c r="L40">
+        <v>51.37614678899083</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>6</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="C41" s="4">
+        <v>750</v>
+      </c>
+      <c r="D41" s="5">
+        <v>830</v>
+      </c>
+      <c r="E41">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="F41">
+        <v>-7.9670696681631903E-2</v>
+      </c>
+      <c r="G41">
+        <v>9.4370000000000114E-3</v>
+      </c>
+      <c r="H41">
+        <v>-8.4423754033730862</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>22</v>
+      </c>
+      <c r="K41">
+        <v>42</v>
+      </c>
+      <c r="L41">
+        <v>34.375</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>7</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="C42" s="4">
+        <v>750</v>
+      </c>
+      <c r="D42" s="4">
+        <v>676</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="F42" s="4">
+        <v>-4.5922050993693255E-3</v>
+      </c>
+      <c r="G42">
+        <v>1.3291999999999859E-2</v>
+      </c>
+      <c r="H42">
+        <v>-0.34548639026251687</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>53</v>
+      </c>
+      <c r="K42">
+        <v>46</v>
+      </c>
+      <c r="L42">
+        <v>53.535353535353536</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>1</v>
+      </c>
+      <c r="B43" s="5">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4">
+        <v>750</v>
+      </c>
+      <c r="D43" s="5">
+        <v>734</v>
+      </c>
+      <c r="E43">
+        <v>0.21</v>
+      </c>
+      <c r="F43">
+        <v>6.0090758783838873E-3</v>
+      </c>
+      <c r="G43">
+        <v>2.3553999999999853E-2</v>
+      </c>
+      <c r="H43">
+        <v>0.25511912534533093</v>
+      </c>
+      <c r="I43">
+        <v>0.25511912534533093</v>
+      </c>
+      <c r="J43">
+        <v>60</v>
+      </c>
+      <c r="K43">
+        <v>78</v>
+      </c>
+      <c r="L43">
+        <v>43.478260869565219</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>2</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="C44" s="4">
+        <v>750</v>
+      </c>
+      <c r="D44" s="5">
+        <v>781</v>
+      </c>
+      <c r="E44">
+        <v>0.21</v>
+      </c>
+      <c r="F44">
+        <v>-1.1294930660567644E-2</v>
+      </c>
+      <c r="G44">
+        <v>4.0740999999999916E-2</v>
+      </c>
+      <c r="H44">
+        <v>-0.27723744288475166</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>51</v>
+      </c>
+      <c r="K44">
+        <v>110</v>
+      </c>
+      <c r="L44">
+        <v>31.677018633540371</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>9</v>
+      </c>
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4">
+        <v>750</v>
+      </c>
+      <c r="D45" s="5">
+        <v>862</v>
+      </c>
+      <c r="E45">
+        <v>0.21</v>
+      </c>
+      <c r="F45">
+        <v>-2.7747634951943385E-2</v>
+      </c>
+      <c r="G45">
+        <v>1.9268999999999981E-2</v>
+      </c>
+      <c r="H45">
+        <v>-1.440014269134019</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>60</v>
+      </c>
+      <c r="K45">
+        <v>105</v>
+      </c>
+      <c r="L45">
+        <v>36.363636363636367</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>1</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="C46" s="4">
+        <v>750</v>
+      </c>
+      <c r="D46">
+        <v>667</v>
+      </c>
+      <c r="E46">
+        <v>0.21</v>
+      </c>
+      <c r="F46">
+        <v>7.5543789943507356E-2</v>
+      </c>
+      <c r="G46" s="12">
+        <v>3.0938E-2</v>
+      </c>
+      <c r="H46">
+        <v>2.4417800098101803</v>
+      </c>
+      <c r="I46">
+        <v>2.4417800098101803</v>
+      </c>
+      <c r="J46">
+        <v>57</v>
+      </c>
+      <c r="K46">
+        <v>41</v>
+      </c>
+      <c r="L46">
+        <v>58.163265306122447</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="24">
+        <v>1</v>
+      </c>
+      <c r="B47" s="24">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="C47" s="4">
+        <v>750</v>
+      </c>
+      <c r="D47" s="19">
+        <v>637</v>
+      </c>
+      <c r="E47" s="19">
+        <v>0.21</v>
+      </c>
+      <c r="F47">
+        <v>7.0816405173794783E-2</v>
+      </c>
+      <c r="G47" s="13">
+        <v>1.6775000000000002E-2</v>
+      </c>
+      <c r="H47">
+        <v>4.221544272655426</v>
+      </c>
+      <c r="I47">
+        <v>4.221544272655426</v>
+      </c>
+      <c r="J47">
+        <v>44</v>
+      </c>
+      <c r="K47">
+        <v>8</v>
+      </c>
+      <c r="L47">
+        <v>84.615384615384613</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>2</v>
+      </c>
+      <c r="B48" s="24">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="C48" s="4">
+        <v>750</v>
+      </c>
+      <c r="D48">
+        <v>908</v>
+      </c>
+      <c r="E48">
+        <v>0.22</v>
+      </c>
+      <c r="F48">
+        <v>-4.3638706707783574E-2</v>
+      </c>
+      <c r="G48" s="13">
+        <v>1.3596E-2</v>
+      </c>
+      <c r="H48">
+        <v>-3.209672455706353</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>28</v>
+      </c>
+      <c r="K48">
+        <v>6</v>
+      </c>
+      <c r="L48">
+        <v>82.35294117647058</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>3</v>
+      </c>
+      <c r="B49" s="24">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="C49" s="4">
+        <v>750</v>
+      </c>
+      <c r="D49">
+        <v>925</v>
+      </c>
+      <c r="E49">
+        <v>0.22</v>
+      </c>
+      <c r="F49">
+        <v>-4.1011000570841526E-2</v>
+      </c>
+      <c r="G49" s="13">
+        <v>1.5675999999999999E-2</v>
+      </c>
+      <c r="H49">
+        <v>-2.6161648743838688</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>37</v>
+      </c>
+      <c r="K49">
+        <v>4</v>
+      </c>
+      <c r="L49">
+        <v>90.243902439024396</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>5</v>
+      </c>
+      <c r="B50" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="C50" s="4">
+        <v>750</v>
+      </c>
+      <c r="D50">
+        <v>856</v>
+      </c>
+      <c r="E50">
+        <v>0.22</v>
+      </c>
+      <c r="F50">
+        <v>-1.5542826542511512E-2</v>
+      </c>
+      <c r="G50" s="13">
+        <v>1.9949999999999999E-2</v>
+      </c>
+      <c r="H50">
+        <v>-0.77908904974995052</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>36</v>
+      </c>
+      <c r="K50">
+        <v>11</v>
+      </c>
+      <c r="L50">
+        <v>76.59574468085107</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>6</v>
+      </c>
+      <c r="B51" s="24">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="C51" s="4">
+        <v>750</v>
+      </c>
+      <c r="D51">
+        <v>472</v>
+      </c>
+      <c r="E51">
+        <v>0.22</v>
+      </c>
+      <c r="F51">
+        <v>0.1570606486494367</v>
+      </c>
+      <c r="G51" s="13">
+        <v>3.2169000000000003E-2</v>
+      </c>
+      <c r="H51">
+        <v>4.882360304934461</v>
+      </c>
+      <c r="I51">
+        <v>4.882360304934461</v>
+      </c>
+      <c r="J51">
+        <v>34</v>
+      </c>
+      <c r="K51">
+        <v>110</v>
+      </c>
+      <c r="L51">
+        <v>23.611111111111111</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>7</v>
+      </c>
+      <c r="B52" s="24">
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="C52" s="4">
+        <v>750</v>
+      </c>
+      <c r="D52">
+        <v>984</v>
+      </c>
+      <c r="E52">
+        <v>0.23</v>
+      </c>
+      <c r="F52">
+        <v>-0.23017663757875365</v>
+      </c>
+      <c r="G52" s="13">
+        <v>2.6526999999999998E-2</v>
+      </c>
+      <c r="H52">
+        <v>-8.6770700636616898</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>11</v>
+      </c>
+      <c r="K52">
+        <v>35</v>
+      </c>
+      <c r="L52">
+        <v>23.913043478260871</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>1</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C53" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D53" s="5">
+        <v>891</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="F53" s="5">
+        <v>-1.2641997565614535E-2</v>
+      </c>
+      <c r="G53">
+        <v>3.2757000000000147E-2</v>
+      </c>
+      <c r="H53">
+        <v>-0.38593270341040015</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>50</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>96.15384615384616</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>2</v>
+      </c>
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
+      <c r="C54" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D54" s="5">
+        <v>910</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="F54" s="5">
+        <v>-1.7308065085205781E-2</v>
+      </c>
+      <c r="G54">
+        <v>3.4575000000000022E-2</v>
+      </c>
+      <c r="H54">
+        <v>-0.50059479639062243</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>60</v>
+      </c>
+      <c r="K54">
+        <v>50</v>
+      </c>
+      <c r="L54">
+        <v>54.54545454545454</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>3</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="C55" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D55" s="5">
+        <v>610</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="F55" s="5">
+        <v>8.4814474152151514E-2</v>
+      </c>
+      <c r="G55">
+        <v>1.5923000000000131E-2</v>
+      </c>
+      <c r="H55">
+        <v>5.3265386015292853</v>
+      </c>
+      <c r="I55">
+        <v>5.3265386015292853</v>
+      </c>
+      <c r="J55">
+        <v>49</v>
+      </c>
+      <c r="K55">
+        <v>8</v>
+      </c>
+      <c r="L55">
+        <v>85.964912280701753</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>4</v>
+      </c>
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="C56" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D56" s="5">
+        <v>854</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="F56" s="5">
+        <v>-3.9702498835173499E-3</v>
+      </c>
+      <c r="G56">
+        <v>1.8013000000000057E-2</v>
+      </c>
+      <c r="H56">
+        <v>-0.22041025279061441</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>60</v>
+      </c>
+      <c r="K56">
+        <v>29</v>
+      </c>
+      <c r="L56">
+        <v>67.415730337078656</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="15">
+        <v>6</v>
+      </c>
+      <c r="B57" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="C57" s="16">
+        <v>1000</v>
+      </c>
+      <c r="D57" s="15">
+        <v>394</v>
+      </c>
+      <c r="E57" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="F57" s="17">
+        <v>0.18892875028989906</v>
+      </c>
+      <c r="G57">
+        <v>1.0061000000000098E-2</v>
+      </c>
+      <c r="H57">
+        <v>18.77832723286922</v>
+      </c>
+      <c r="I57">
+        <v>18.77832723286922</v>
+      </c>
+      <c r="J57">
+        <v>51</v>
+      </c>
+      <c r="K57">
+        <v>9</v>
+      </c>
+      <c r="L57">
+        <v>85</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>1</v>
+      </c>
+      <c r="B58" s="27">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1082</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="F58">
+        <v>5.0293761608398296E-3</v>
+      </c>
+      <c r="G58" s="13">
+        <v>3.5156E-2</v>
+      </c>
+      <c r="H58">
+        <v>0.1430588281044439</v>
+      </c>
+      <c r="I58">
+        <v>0.1430588281044439</v>
+      </c>
+      <c r="J58">
+        <v>7</v>
+      </c>
+      <c r="K58">
+        <v>22</v>
+      </c>
+      <c r="L58">
+        <v>24.137931034482758</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>2</v>
+      </c>
+      <c r="B59" s="27">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D59" s="5">
+        <v>1133</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="F59">
+        <v>-4.6547709552044694E-2</v>
+      </c>
+      <c r="G59" s="13">
+        <v>1.3749000000000001E-2</v>
+      </c>
+      <c r="H59">
+        <v>-3.385534188089657</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>34</v>
+      </c>
+      <c r="K59">
+        <v>10</v>
+      </c>
+      <c r="L59">
+        <v>77.272727272727266</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>5</v>
+      </c>
+      <c r="B60" s="27">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="C60" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D60" s="5">
+        <v>1141</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="F60">
+        <v>-5.2915856202311415E-2</v>
+      </c>
+      <c r="G60" s="13">
+        <v>2.3130000000000001E-2</v>
+      </c>
+      <c r="H60">
+        <v>-2.287758590674942</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>29</v>
+      </c>
+      <c r="K60">
+        <v>17</v>
+      </c>
+      <c r="L60">
+        <v>63.04347826086957</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="15">
+        <v>8</v>
+      </c>
+      <c r="B61" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="C61" s="15">
+        <v>1000</v>
+      </c>
+      <c r="D61" s="15">
+        <v>999</v>
+      </c>
+      <c r="E61" s="15">
+        <v>0.23</v>
+      </c>
+      <c r="F61" s="17">
+        <v>0.12794747814034174</v>
+      </c>
+      <c r="G61" s="13">
+        <v>1.5896E-2</v>
+      </c>
+      <c r="H61">
+        <v>8.0490361185418813</v>
+      </c>
+      <c r="I61">
+        <v>8.0490361185418813</v>
+      </c>
+      <c r="J61">
+        <v>9</v>
+      </c>
+      <c r="K61">
+        <v>20</v>
+      </c>
+      <c r="L61">
+        <v>31.03448275862069</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>10</v>
+      </c>
+      <c r="B62" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1058</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="F62">
+        <v>-9.0563932504840097E-3</v>
+      </c>
+      <c r="G62" s="13">
+        <v>5.6786999999999997E-2</v>
+      </c>
+      <c r="H62">
+        <v>-0.15948004385658707</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>30</v>
+      </c>
+      <c r="K62">
+        <v>29</v>
+      </c>
+      <c r="L62">
+        <v>50.847457627118644</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>2</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C63" s="2">
+        <v>250</v>
+      </c>
+      <c r="D63" s="3">
+        <v>300</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="F63" s="3">
+        <v>-6.2364464098839931E-2</v>
+      </c>
+      <c r="G63">
+        <v>2.5921000000000083E-2</v>
+      </c>
+      <c r="H63">
+        <v>-2.405943601668135</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>38</v>
+      </c>
+      <c r="K63">
+        <v>12</v>
+      </c>
+      <c r="L63">
+        <v>76</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>4</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2">
+        <v>250</v>
+      </c>
+      <c r="D64" s="3">
+        <v>235</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F64" s="3">
+        <v>6.7752798639779972E-3</v>
+      </c>
+      <c r="G64">
+        <v>3.2454999999999901E-2</v>
+      </c>
+      <c r="H64">
+        <v>0.20875920086205571</v>
+      </c>
+      <c r="I64">
+        <v>0.20875920086205571</v>
+      </c>
+      <c r="J64">
+        <v>60</v>
+      </c>
+      <c r="K64">
+        <v>66</v>
+      </c>
+      <c r="L64">
+        <v>47.619047619047613</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>7</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2">
+        <v>250</v>
+      </c>
+      <c r="D65" s="3">
+        <v>269</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F65" s="3">
+        <v>-2.2006529478507869E-2</v>
+      </c>
+      <c r="G65">
+        <v>3.2062999999999953E-2</v>
+      </c>
+      <c r="H65">
+        <v>-0.68635278914973341</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>60</v>
+      </c>
+      <c r="K65">
+        <v>66</v>
+      </c>
+      <c r="L65">
+        <v>47.619047619047613</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>1</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2">
+        <v>250</v>
+      </c>
+      <c r="D66" s="4">
+        <v>418</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="F66" s="4">
+        <v>-3.8108920080766467E-2</v>
+      </c>
+      <c r="G66" s="9">
+        <v>5.4708000000000201E-2</v>
+      </c>
+      <c r="H66">
+        <v>-0.69658770345774523</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>60</v>
+      </c>
+      <c r="K66">
+        <v>32</v>
+      </c>
+      <c r="L66">
+        <v>65.217391304347828</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>2</v>
+      </c>
+      <c r="B67" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C67" s="2">
+        <v>250</v>
+      </c>
+      <c r="D67" s="4">
+        <v>565</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F67" s="4">
+        <v>-0.20715124888827435</v>
+      </c>
+      <c r="G67" s="9">
+        <v>1.7985999999999835E-2</v>
+      </c>
+      <c r="H67">
+        <v>-11.517360663197834</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>40</v>
+      </c>
+      <c r="K67">
+        <v>20</v>
+      </c>
+      <c r="L67">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>3</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2">
+        <v>250</v>
+      </c>
+      <c r="D68" s="4">
+        <v>264</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="F68" s="4">
+        <v>3.2633642905246257E-2</v>
+      </c>
+      <c r="G68">
+        <v>1.5436000000000005E-2</v>
+      </c>
+      <c r="H68">
+        <v>2.1141256093059244</v>
+      </c>
+      <c r="I68">
+        <v>2.1141256093059244</v>
+      </c>
+      <c r="J68">
+        <v>60</v>
+      </c>
+      <c r="K68">
+        <v>74</v>
+      </c>
+      <c r="L68">
+        <v>44.776119402985074</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>1</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2">
+        <v>250</v>
+      </c>
+      <c r="D69" s="2">
+        <v>117</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="F69">
+        <v>0.11611398324683715</v>
+      </c>
+      <c r="G69" s="12">
+        <v>0.14021600000000001</v>
+      </c>
+      <c r="H69">
+        <v>0.82810794236632868</v>
+      </c>
+      <c r="I69">
+        <v>0.82810794236632868</v>
+      </c>
+      <c r="J69">
+        <v>60</v>
+      </c>
+      <c r="K69">
+        <v>111</v>
+      </c>
+      <c r="L69">
+        <v>35.087719298245609</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>3</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2">
+        <v>250</v>
+      </c>
+      <c r="D70" s="2">
+        <v>300</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="F70">
+        <v>-8.1623810123436266E-2</v>
+      </c>
+      <c r="G70" s="12">
+        <v>4.7733999999999999E-2</v>
+      </c>
+      <c r="H70">
+        <v>-1.7099721398465719</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>60</v>
+      </c>
+      <c r="K70">
+        <v>69</v>
+      </c>
+      <c r="L70">
+        <v>46.511627906976742</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>4</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2">
+        <v>250</v>
+      </c>
+      <c r="D71" s="2">
+        <v>197</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="F71">
+        <v>6.6977265193883424E-3</v>
+      </c>
+      <c r="G71" s="12">
+        <v>4.8521000000000002E-2</v>
+      </c>
+      <c r="H71">
+        <v>0.13803768511342188</v>
+      </c>
+      <c r="I71">
+        <v>0.13803768511342188</v>
+      </c>
+      <c r="J71">
+        <v>60</v>
+      </c>
+      <c r="K71">
+        <v>16</v>
+      </c>
+      <c r="L71">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>1</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2">
+        <v>250</v>
+      </c>
+      <c r="D72">
+        <v>141</v>
+      </c>
+      <c r="E72">
+        <v>0.21</v>
+      </c>
+      <c r="F72">
+        <v>0.10509015336781159</v>
+      </c>
+      <c r="G72" s="12">
+        <v>2.5894E-2</v>
+      </c>
+      <c r="H72">
+        <v>4.0584750663401401</v>
+      </c>
+      <c r="I72">
+        <v>4.0584750663401401</v>
+      </c>
+      <c r="J72">
+        <v>60</v>
+      </c>
+      <c r="K72">
+        <v>51</v>
+      </c>
+      <c r="L72">
+        <v>54.054054054054056</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>2</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2">
+        <v>250</v>
+      </c>
+      <c r="D73" s="2">
+        <v>128</v>
+      </c>
+      <c r="E73">
+        <v>0.21</v>
+      </c>
+      <c r="F73">
+        <v>0.12540337492410733</v>
+      </c>
+      <c r="G73" s="12">
+        <v>1.7926999999999998E-2</v>
+      </c>
+      <c r="H73">
+        <v>6.995223680711069</v>
+      </c>
+      <c r="I73">
+        <v>6.995223680711069</v>
+      </c>
+      <c r="J73">
+        <v>60</v>
+      </c>
+      <c r="K73">
+        <v>23</v>
+      </c>
+      <c r="L73">
+        <v>72.289156626506028</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>4</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="C74" s="2">
+        <v>250</v>
+      </c>
+      <c r="D74" s="2">
+        <v>139</v>
+      </c>
+      <c r="E74">
+        <v>0.22</v>
+      </c>
+      <c r="F74">
+        <v>0.18499910486802953</v>
+      </c>
+      <c r="G74" s="12">
+        <v>2.4813999999999999E-2</v>
+      </c>
+      <c r="H74">
+        <v>7.4554326133646143</v>
+      </c>
+      <c r="I74">
+        <v>7.4554326133646143</v>
+      </c>
+      <c r="J74">
+        <v>34</v>
+      </c>
+      <c r="K74">
+        <v>33</v>
+      </c>
+      <c r="L74">
+        <v>50.746268656716417</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>6</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="C75" s="2">
+        <v>250</v>
+      </c>
+      <c r="D75" s="2">
+        <v>106</v>
+      </c>
+      <c r="E75">
+        <v>0.22</v>
+      </c>
+      <c r="F75">
+        <v>0.29022439531055444</v>
+      </c>
+      <c r="G75" s="12">
+        <v>7.2891999999999998E-2</v>
+      </c>
+      <c r="H75">
+        <v>3.9815671858441863</v>
+      </c>
+      <c r="I75">
+        <v>3.9815671858441863</v>
+      </c>
+      <c r="J75">
+        <v>34</v>
+      </c>
+      <c r="K75">
+        <v>33</v>
+      </c>
+      <c r="L75">
+        <v>50.746268656716417</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>7</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2">
+        <v>250</v>
+      </c>
+      <c r="D76" s="2">
+        <v>127</v>
+      </c>
+      <c r="E76">
+        <v>0.21</v>
+      </c>
+      <c r="F76">
+        <v>0.12705044219092276</v>
+      </c>
+      <c r="G76" s="12">
+        <v>1.9175000000000001E-2</v>
+      </c>
+      <c r="H76">
+        <v>6.6258379239073149</v>
+      </c>
+      <c r="I76">
+        <v>6.6258379239073149</v>
+      </c>
+      <c r="J76">
+        <v>60</v>
+      </c>
+      <c r="K76">
+        <v>53</v>
+      </c>
+      <c r="L76">
+        <v>53.097345132743371</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>1</v>
+      </c>
+      <c r="B77" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C77" s="2">
+        <v>250</v>
+      </c>
+      <c r="D77" s="6">
+        <v>264</v>
+      </c>
+      <c r="E77">
+        <v>0.23</v>
+      </c>
+      <c r="F77">
+        <v>1.0174595112562073</v>
+      </c>
+      <c r="G77" s="13">
+        <v>5.1253E-2</v>
+      </c>
+      <c r="H77">
+        <v>19.851706461206316</v>
+      </c>
+      <c r="I77">
+        <v>19.851706461206316</v>
+      </c>
+      <c r="J77">
+        <v>9</v>
+      </c>
+      <c r="K77">
+        <v>26</v>
+      </c>
+      <c r="L77">
+        <v>25.714285714285712</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>3</v>
+      </c>
+      <c r="B78" s="5">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2">
+        <v>250</v>
+      </c>
+      <c r="D78" s="6">
+        <v>373</v>
+      </c>
+      <c r="E78">
+        <v>0.21</v>
+      </c>
+      <c r="F78">
+        <v>0.14813090801073703</v>
+      </c>
+      <c r="G78" s="13">
+        <v>1.3053E-2</v>
+      </c>
+      <c r="H78">
+        <v>11.348418601910444</v>
+      </c>
+      <c r="I78">
+        <v>11.348418601910444</v>
+      </c>
+      <c r="J78">
+        <v>60</v>
+      </c>
+      <c r="K78">
+        <v>25</v>
+      </c>
+      <c r="L78">
+        <v>70.588235294117652</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>4</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C79" s="2">
+        <v>250</v>
+      </c>
+      <c r="D79" s="6">
+        <v>517</v>
+      </c>
+      <c r="E79">
+        <v>0.21</v>
+      </c>
+      <c r="F79">
+        <v>7.9267843013871811E-2</v>
+      </c>
+      <c r="G79" s="13">
+        <v>3.4883999999999998E-2</v>
+      </c>
+      <c r="H79">
+        <v>2.2723266544510898</v>
+      </c>
+      <c r="I79">
+        <v>2.2723266544510898</v>
+      </c>
+      <c r="J79">
+        <v>48</v>
+      </c>
+      <c r="K79">
+        <v>59</v>
+      </c>
+      <c r="L79">
+        <v>44.859813084112147</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>5</v>
+      </c>
+      <c r="B80" s="5">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2">
+        <v>250</v>
+      </c>
+      <c r="D80" s="6">
+        <v>658</v>
+      </c>
+      <c r="E80">
+        <v>0.21</v>
+      </c>
+      <c r="F80">
+        <v>2.8929340557621676E-2</v>
+      </c>
+      <c r="G80" s="13">
+        <v>4.7860000000000003E-3</v>
+      </c>
+      <c r="H80">
+        <v>6.0445759627291418</v>
+      </c>
+      <c r="I80">
+        <v>6.0445759627291418</v>
+      </c>
+      <c r="J80">
+        <v>60</v>
+      </c>
+      <c r="K80">
+        <v>20</v>
+      </c>
+      <c r="L80">
+        <v>75</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>6</v>
+      </c>
+      <c r="B81" s="5">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2">
+        <v>250</v>
+      </c>
+      <c r="D81" s="6">
+        <v>396</v>
+      </c>
+      <c r="E81">
+        <v>0.21</v>
+      </c>
+      <c r="F81">
+        <v>0.13556539177249738</v>
+      </c>
+      <c r="G81" s="13">
+        <v>6.7390000000000002E-3</v>
+      </c>
+      <c r="H81">
+        <v>20.116544260646592</v>
+      </c>
+      <c r="I81">
+        <v>20.116544260646592</v>
+      </c>
+      <c r="J81">
+        <v>60</v>
+      </c>
+      <c r="K81">
+        <v>37</v>
+      </c>
+      <c r="L81">
+        <v>61.855670103092784</v>
+      </c>
+      <c r="M81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>7</v>
+      </c>
+      <c r="B82" s="5">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2">
+        <v>250</v>
+      </c>
+      <c r="D82" s="6">
+        <v>968</v>
+      </c>
+      <c r="E82">
+        <v>0.21</v>
+      </c>
+      <c r="F82">
+        <v>-5.213636219214289E-2</v>
+      </c>
+      <c r="G82" s="13">
+        <v>8.7480000000000006E-3</v>
+      </c>
+      <c r="H82">
+        <v>-5.9598036342184368</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>60</v>
+      </c>
+      <c r="K82">
+        <v>22</v>
+      </c>
+      <c r="L82">
+        <v>73.170731707317074</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>2</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C83" s="3">
+        <v>500</v>
+      </c>
+      <c r="D83" s="3">
+        <v>467</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="F83" s="3">
+        <v>-7.7112128536765495E-2</v>
+      </c>
+      <c r="G83">
+        <v>2.1796000000000149E-2</v>
+      </c>
+      <c r="H83">
+        <v>-3.5379027590734524</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>38</v>
+      </c>
+      <c r="K83">
+        <v>84</v>
+      </c>
+      <c r="L83">
+        <v>31.147540983606557</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>5</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+      <c r="C84" s="3">
+        <v>500</v>
+      </c>
+      <c r="D84" s="3">
+        <v>261</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F84" s="3">
+        <v>8.7923493408133005E-2</v>
+      </c>
+      <c r="G84">
+        <v>4.5819000000000054E-2</v>
+      </c>
+      <c r="H84">
+        <v>1.9189308672850325</v>
+      </c>
+      <c r="I84">
+        <v>1.9189308672850325</v>
+      </c>
+      <c r="J84">
+        <v>60</v>
+      </c>
+      <c r="K84">
+        <v>101</v>
+      </c>
+      <c r="L84">
+        <v>37.267080745341616</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>6</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="C85" s="3">
+        <v>500</v>
+      </c>
+      <c r="D85" s="3">
+        <v>248</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0.34008285703083163</v>
+      </c>
+      <c r="G85">
+        <v>5.7447999999999944E-2</v>
+      </c>
+      <c r="H85">
+        <v>5.919838062784291</v>
+      </c>
+      <c r="I85">
+        <v>5.919838062784291</v>
+      </c>
+      <c r="J85">
+        <v>22</v>
+      </c>
+      <c r="K85">
+        <v>17</v>
+      </c>
+      <c r="L85">
+        <v>56.410256410256409</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>1</v>
+      </c>
+      <c r="B86" s="4">
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="C86" s="3">
+        <v>500</v>
+      </c>
+      <c r="D86" s="4">
+        <v>360</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F86" s="4">
+        <v>6.9809038883610453E-2</v>
+      </c>
+      <c r="G86">
+        <v>1.3157999999999781E-2</v>
+      </c>
+      <c r="H86">
+        <v>5.3054445115983899</v>
+      </c>
+      <c r="I86">
+        <v>5.3054445115983899</v>
+      </c>
+      <c r="J86">
+        <v>49</v>
+      </c>
+      <c r="K86">
+        <v>29</v>
+      </c>
+      <c r="L86">
+        <v>62.820512820512818</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>3</v>
+      </c>
+      <c r="B87" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="C87" s="3">
+        <v>500</v>
+      </c>
+      <c r="D87" s="4">
+        <v>523</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F87" s="4">
+        <v>-3.5808894721077462E-2</v>
+      </c>
+      <c r="G87">
+        <v>2.3098000000000063E-2</v>
+      </c>
+      <c r="H87">
+        <v>-1.5503028279971152</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>42</v>
+      </c>
+      <c r="K87">
+        <v>16</v>
+      </c>
+      <c r="L87">
+        <v>72.41379310344827</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>4</v>
+      </c>
+      <c r="B88" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C88" s="3">
+        <v>500</v>
+      </c>
+      <c r="D88" s="4">
+        <v>506</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F88" s="4">
+        <v>-1.5218859709048044E-2</v>
+      </c>
+      <c r="G88">
+        <v>2.08870000000001E-2</v>
+      </c>
+      <c r="H88">
+        <v>-0.72862831948331364</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>54</v>
+      </c>
+      <c r="K88">
+        <v>9</v>
+      </c>
+      <c r="L88">
+        <v>85.714285714285708</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>6</v>
+      </c>
+      <c r="B89" s="4">
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="C89" s="3">
+        <v>500</v>
+      </c>
+      <c r="D89" s="4">
+        <v>319</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F89" s="4">
+        <v>0.10654237966205218</v>
+      </c>
+      <c r="G89">
+        <v>3.1123000000000012E-2</v>
+      </c>
+      <c r="H89">
+        <v>3.4232683116040272</v>
+      </c>
+      <c r="I89">
+        <v>3.4232683116040272</v>
+      </c>
+      <c r="J89">
+        <v>46</v>
+      </c>
+      <c r="K89">
+        <v>22</v>
+      </c>
+      <c r="L89">
+        <v>67.64705882352942</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>7</v>
+      </c>
+      <c r="B90" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C90" s="3">
+        <v>500</v>
+      </c>
+      <c r="D90" s="4">
+        <v>563</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="F90" s="4">
+        <v>-8.4516394398390551E-2</v>
+      </c>
+      <c r="G90">
+        <v>1.8594999999999917E-2</v>
+      </c>
+      <c r="H90">
+        <v>-4.5451139767889712</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>36</v>
+      </c>
+      <c r="K90">
+        <v>42</v>
+      </c>
+      <c r="L90">
+        <v>46.153846153846153</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>9</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C91" s="3">
+        <v>500</v>
+      </c>
+      <c r="D91" s="4">
+        <v>442</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F91" s="4">
+        <v>1.6395313813439644E-2</v>
+      </c>
+      <c r="G91">
+        <v>4.0135000000000032E-2</v>
+      </c>
+      <c r="H91">
+        <v>0.40850414385049533</v>
+      </c>
+      <c r="I91">
+        <v>0.40850414385049533</v>
+      </c>
+      <c r="J91">
+        <v>50</v>
+      </c>
+      <c r="K91">
+        <v>23</v>
+      </c>
+      <c r="L91">
+        <v>68.493150684931507</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <v>1</v>
+      </c>
+      <c r="B92" s="5">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="C92" s="3">
+        <v>500</v>
+      </c>
+      <c r="D92" s="5">
+        <v>552</v>
+      </c>
+      <c r="E92" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F92" s="6">
+        <v>-6.8704176759314423E-2</v>
+      </c>
+      <c r="G92">
+        <v>1.4135999999999926E-2</v>
+      </c>
+      <c r="H92">
+        <v>-4.8602275579594494</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>32</v>
+      </c>
+      <c r="K92">
+        <v>27</v>
+      </c>
+      <c r="L92">
+        <v>54.237288135593218</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
+        <v>3</v>
+      </c>
+      <c r="B93" s="5">
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="C93" s="3">
+        <v>500</v>
+      </c>
+      <c r="D93" s="5">
+        <v>406</v>
+      </c>
+      <c r="E93" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="F93" s="6">
+        <v>0.31336264913714851</v>
+      </c>
+      <c r="G93">
+        <v>1.5019000000000005E-2</v>
+      </c>
+      <c r="H93">
+        <v>20.86441501678863</v>
+      </c>
+      <c r="I93">
+        <v>20.86441501678863</v>
+      </c>
+      <c r="J93">
+        <v>11</v>
+      </c>
+      <c r="K93">
+        <v>19</v>
+      </c>
+      <c r="L93">
+        <v>36.666666666666664</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
+        <v>5</v>
+      </c>
+      <c r="B94" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C94" s="3">
+        <v>500</v>
+      </c>
+      <c r="D94" s="5">
+        <v>416</v>
+      </c>
+      <c r="E94" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="F94" s="6">
+        <v>0.2233196921029971</v>
+      </c>
+      <c r="G94">
+        <v>2.0844000000000085E-2</v>
+      </c>
+      <c r="H94">
+        <v>10.713859724764738</v>
+      </c>
+      <c r="I94">
+        <v>10.713859724764738</v>
+      </c>
+      <c r="J94">
+        <v>15</v>
+      </c>
+      <c r="K94">
+        <v>15</v>
+      </c>
+      <c r="L94">
+        <v>50</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
+        <v>6</v>
+      </c>
+      <c r="B95" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C95" s="3">
+        <v>500</v>
+      </c>
+      <c r="D95" s="5">
+        <v>82</v>
+      </c>
+      <c r="E95" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F95" s="6">
+        <v>0.5411135257822316</v>
+      </c>
+      <c r="G95">
+        <v>2.9372000000000176E-2</v>
+      </c>
+      <c r="H95">
+        <v>18.42276745819925</v>
+      </c>
+      <c r="I95">
+        <v>18.42276745819925</v>
+      </c>
+      <c r="J95">
+        <v>40</v>
+      </c>
+      <c r="K95">
+        <v>46</v>
+      </c>
+      <c r="L95">
+        <v>46.511627906976742</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>1</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1</v>
+      </c>
+      <c r="C96" s="3">
+        <v>500</v>
+      </c>
+      <c r="D96" s="3">
+        <v>164</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="F96">
+        <v>0.21440710487053641</v>
+      </c>
+      <c r="G96" s="12">
+        <v>6.5573000000000006E-2</v>
+      </c>
+      <c r="H96">
+        <v>3.2697467688002133</v>
+      </c>
+      <c r="I96">
+        <v>3.2697467688002133</v>
+      </c>
+      <c r="J96">
+        <v>60</v>
+      </c>
+      <c r="K96">
+        <v>55</v>
+      </c>
+      <c r="L96">
+        <v>52.173913043478258</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>2</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="C97" s="3">
+        <v>500</v>
+      </c>
+      <c r="D97" s="3">
+        <v>300</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="F97">
+        <v>9.3097268663798055E-2</v>
+      </c>
+      <c r="G97" s="12">
+        <v>5.3383E-2</v>
+      </c>
+      <c r="H97">
+        <v>1.7439497342561874</v>
+      </c>
+      <c r="I97">
+        <v>1.7439497342561874</v>
+      </c>
+      <c r="J97">
+        <v>57</v>
+      </c>
+      <c r="K97">
+        <v>27</v>
+      </c>
+      <c r="L97">
+        <v>67.857142857142861</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>3</v>
+      </c>
+      <c r="B98" s="3">
+        <v>1</v>
+      </c>
+      <c r="C98" s="3">
+        <v>500</v>
+      </c>
+      <c r="D98" s="3">
+        <v>203</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="F98">
+        <v>0.16960579911484275</v>
+      </c>
+      <c r="G98" s="12">
+        <v>3.7525000000000003E-2</v>
+      </c>
+      <c r="H98">
+        <v>4.5198081043262555</v>
+      </c>
+      <c r="I98">
+        <v>4.5198081043262555</v>
+      </c>
+      <c r="J98">
+        <v>60</v>
+      </c>
+      <c r="K98">
+        <v>28</v>
+      </c>
+      <c r="L98">
+        <v>68.181818181818173</v>
+      </c>
+      <c r="M98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>4</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="C99" s="3">
+        <v>500</v>
+      </c>
+      <c r="D99" s="3">
+        <v>180</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="F99">
+        <v>0.19845153161858103</v>
+      </c>
+      <c r="G99" s="12">
+        <v>4.6878999999999997E-2</v>
+      </c>
+      <c r="H99">
+        <v>4.2332714353672447</v>
+      </c>
+      <c r="I99">
+        <v>4.2332714353672447</v>
+      </c>
+      <c r="J99">
+        <v>59</v>
+      </c>
+      <c r="K99">
+        <v>12</v>
+      </c>
+      <c r="L99">
+        <v>83.098591549295776</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>4</v>
+      </c>
+      <c r="B100" s="4">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="C100" s="4">
+        <v>750</v>
+      </c>
+      <c r="D100" s="4">
+        <v>424</v>
+      </c>
+      <c r="E100" s="4">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F100" s="4">
+        <v>9.3217764477348836E-2</v>
+      </c>
+      <c r="G100">
+        <v>1.6360999999999848E-2</v>
+      </c>
+      <c r="H100">
+        <v>5.6975591025823427</v>
+      </c>
+      <c r="I100">
+        <v>5.6975591025823427</v>
+      </c>
+      <c r="J100">
+        <v>52</v>
+      </c>
+      <c r="K100">
+        <v>19</v>
+      </c>
+      <c r="L100">
+        <v>73.239436619718319</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>10</v>
+      </c>
+      <c r="B101" s="4">
+        <v>1</v>
+      </c>
+      <c r="C101" s="4">
+        <v>750</v>
+      </c>
+      <c r="D101" s="4">
+        <v>334</v>
+      </c>
+      <c r="E101" s="4">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F101" s="4">
+        <v>0.12909353142342547</v>
+      </c>
+      <c r="G101">
+        <v>2.3732000000000086E-2</v>
+      </c>
+      <c r="H101">
+        <v>5.4396397869300941</v>
+      </c>
+      <c r="I101">
+        <v>5.4396397869300941</v>
+      </c>
+      <c r="J101">
+        <v>60</v>
+      </c>
+      <c r="K101">
+        <v>58</v>
+      </c>
+      <c r="L101">
+        <v>50.847457627118644</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>0.35</v>
+      </c>
+      <c r="C102" s="4">
+        <v>750</v>
+      </c>
+      <c r="D102" s="5">
+        <v>894</v>
+      </c>
+      <c r="E102" s="5">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="F102" s="5">
+        <v>-0.13891691578083648</v>
+      </c>
+      <c r="G102">
+        <v>1.3594000000000106E-2</v>
+      </c>
+      <c r="H102">
+        <v>-10.218987478360702</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>21</v>
+      </c>
+      <c r="K102">
+        <v>16</v>
+      </c>
+      <c r="L102">
+        <v>56.756756756756758</v>
+      </c>
+      <c r="M102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
+        <v>6</v>
+      </c>
+      <c r="B103">
+        <v>0.2</v>
+      </c>
+      <c r="C103" s="4">
+        <v>750</v>
+      </c>
+      <c r="D103" s="5">
+        <v>567</v>
+      </c>
+      <c r="E103" s="5">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="F103" s="5">
+        <v>0.21911615281371158</v>
+      </c>
+      <c r="G103">
+        <v>1.6574000000000089E-2</v>
+      </c>
+      <c r="H103">
+        <v>13.220475009877543</v>
+      </c>
+      <c r="I103">
+        <v>13.220475009877543</v>
+      </c>
+      <c r="J103">
+        <v>12</v>
+      </c>
+      <c r="K103">
+        <v>29</v>
+      </c>
+      <c r="L103">
+        <v>29.268292682926827</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
+        <v>9</v>
+      </c>
+      <c r="B104">
+        <v>0.65</v>
+      </c>
+      <c r="C104" s="4">
+        <v>750</v>
+      </c>
+      <c r="D104" s="5">
+        <v>666</v>
+      </c>
+      <c r="E104" s="5">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="F104" s="5">
+        <v>4.5430569866481529E-2</v>
+      </c>
+      <c r="G104">
+        <v>2.2261000000000086E-2</v>
+      </c>
+      <c r="H104">
+        <v>2.0408144228238334</v>
+      </c>
+      <c r="I104">
+        <v>2.0408144228238334</v>
+      </c>
+      <c r="J104">
+        <v>39</v>
+      </c>
+      <c r="K104">
+        <v>57</v>
+      </c>
+      <c r="L104">
+        <v>40.625</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>4</v>
+      </c>
+      <c r="B105" s="4">
+        <v>1</v>
+      </c>
+      <c r="C105" s="4">
+        <v>750</v>
+      </c>
+      <c r="D105" s="4">
+        <v>613</v>
+      </c>
+      <c r="E105" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="F105">
+        <v>-5.413300291739997E-3</v>
+      </c>
+      <c r="G105" s="12">
+        <v>6.7308999999999994E-2</v>
+      </c>
+      <c r="H105">
+        <v>-8.0424613227651542E-2</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>60</v>
+      </c>
+      <c r="K105">
+        <v>92</v>
+      </c>
+      <c r="L105">
+        <v>39.473684210526315</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>1</v>
+      </c>
+      <c r="B106" s="4">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="C106" s="4">
+        <v>750</v>
+      </c>
+      <c r="D106" s="4">
+        <v>231</v>
+      </c>
+      <c r="E106">
+        <v>0.23</v>
+      </c>
+      <c r="F106">
+        <v>0.9014308745712214</v>
+      </c>
+      <c r="G106" s="13">
+        <v>3.9882000000000001E-2</v>
+      </c>
+      <c r="H106">
+        <v>22.602449089093358</v>
+      </c>
+      <c r="I106">
+        <v>22.602449089093358</v>
+      </c>
+      <c r="J106">
+        <v>16</v>
+      </c>
+      <c r="K106">
+        <v>95</v>
+      </c>
+      <c r="L106">
+        <v>14.414414414414415</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>2</v>
+      </c>
+      <c r="B107" s="4">
+        <v>1</v>
+      </c>
+      <c r="C107" s="4">
+        <v>750</v>
+      </c>
+      <c r="D107" s="4">
+        <v>842</v>
+      </c>
+      <c r="E107">
+        <v>0.21</v>
+      </c>
+      <c r="F107">
+        <v>-5.3203870784389685E-2</v>
+      </c>
+      <c r="G107" s="13">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="H107">
+        <v>-5.4849351324113078</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>60</v>
+      </c>
+      <c r="K107">
+        <v>28</v>
+      </c>
+      <c r="L107">
+        <v>68.181818181818173</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>4</v>
+      </c>
+      <c r="B108" s="4">
+        <v>1</v>
+      </c>
+      <c r="C108" s="4">
+        <v>750</v>
+      </c>
+      <c r="D108" s="4">
+        <v>865</v>
+      </c>
+      <c r="E108">
+        <v>0.21</v>
+      </c>
+      <c r="F108">
+        <v>-5.8863264249195753E-2</v>
+      </c>
+      <c r="G108" s="13">
+        <v>5.0749000000000002E-2</v>
+      </c>
+      <c r="H108">
+        <v>-1.1598901308241689</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>60</v>
+      </c>
+      <c r="K108">
+        <v>15</v>
+      </c>
+      <c r="L108">
+        <v>80</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>5</v>
+      </c>
+      <c r="B109" s="4">
+        <v>1</v>
+      </c>
+      <c r="C109" s="4">
+        <v>750</v>
+      </c>
+      <c r="D109" s="4">
+        <v>159</v>
+      </c>
+      <c r="E109">
+        <v>0.21</v>
+      </c>
+      <c r="F109">
+        <v>0.29684004974025036</v>
+      </c>
+      <c r="G109" s="13">
+        <v>2.5361999999999999E-2</v>
+      </c>
+      <c r="H109">
+        <v>11.704126241631196</v>
+      </c>
+      <c r="I109">
+        <v>11.704126241631196</v>
+      </c>
+      <c r="J109">
+        <v>60</v>
+      </c>
+      <c r="K109">
+        <v>15</v>
+      </c>
+      <c r="L109">
+        <v>80</v>
+      </c>
+      <c r="M109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>6</v>
+      </c>
+      <c r="B110" s="4">
+        <v>1</v>
+      </c>
+      <c r="C110" s="4">
+        <v>750</v>
+      </c>
+      <c r="D110" s="4">
+        <v>164</v>
+      </c>
+      <c r="E110">
+        <v>0.21</v>
+      </c>
+      <c r="F110">
+        <v>0.29033798236341724</v>
+      </c>
+      <c r="G110" s="13">
+        <v>2.9942E-2</v>
+      </c>
+      <c r="H110">
+        <v>9.6966796594555227</v>
+      </c>
+      <c r="I110">
+        <v>9.6966796594555227</v>
+      </c>
+      <c r="J110">
+        <v>60</v>
+      </c>
+      <c r="K110">
+        <v>24</v>
+      </c>
+      <c r="L110">
+        <v>71.428571428571431</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>7</v>
+      </c>
+      <c r="B111" s="4">
+        <v>1</v>
+      </c>
+      <c r="C111" s="4">
+        <v>750</v>
+      </c>
+      <c r="D111" s="4">
+        <v>462</v>
+      </c>
+      <c r="E111">
+        <v>0.21</v>
+      </c>
+      <c r="F111">
+        <v>7.2841305079333771E-2</v>
+      </c>
+      <c r="G111" s="13">
+        <v>3.48E-3</v>
+      </c>
+      <c r="H111">
+        <v>20.931409505555681</v>
+      </c>
+      <c r="I111">
+        <v>20.931409505555681</v>
+      </c>
+      <c r="J111">
+        <v>60</v>
+      </c>
+      <c r="K111">
+        <v>67</v>
+      </c>
+      <c r="L111">
+        <v>47.244094488188978</v>
+      </c>
+      <c r="M111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="5">
+        <v>2</v>
+      </c>
+      <c r="B112" s="5">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="C112" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D112" s="5">
+        <v>847</v>
+      </c>
+      <c r="E112" s="5">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="F112" s="5">
+        <v>-5.6221704625384609E-2</v>
+      </c>
+      <c r="G112">
+        <v>1.2552999999999925E-2</v>
+      </c>
+      <c r="H112">
+        <v>-4.4787464849346721</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>16</v>
+      </c>
+      <c r="K112">
+        <v>34</v>
+      </c>
+      <c r="L112">
+        <v>32</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" s="5">
+        <v>6</v>
+      </c>
+      <c r="B113" s="5">
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="C113" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D113" s="5">
+        <v>557</v>
+      </c>
+      <c r="E113" s="5">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="F113" s="5">
+        <v>0.2950772380773285</v>
+      </c>
+      <c r="G113">
+        <v>3.8793000000000077E-2</v>
+      </c>
+      <c r="H113">
+        <v>7.6064557543197973</v>
+      </c>
+      <c r="I113">
+        <v>7.6064557543197973</v>
+      </c>
+      <c r="J113">
+        <v>17</v>
+      </c>
+      <c r="K113">
+        <v>107</v>
+      </c>
+      <c r="L113">
+        <v>13.709677419354838</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <v>2</v>
+      </c>
+      <c r="B114" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="C114" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D114" s="6">
+        <v>192</v>
+      </c>
+      <c r="E114" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="F114">
+        <v>0.29554963994449579</v>
+      </c>
+      <c r="G114" s="12">
+        <v>5.7991000000000001E-2</v>
+      </c>
+      <c r="H114">
+        <v>5.0964742795346831</v>
+      </c>
+      <c r="I114">
+        <v>5.0964742795346831</v>
+      </c>
+      <c r="J114">
+        <v>57</v>
+      </c>
+      <c r="K114">
+        <v>161</v>
+      </c>
+      <c r="L114">
+        <v>26.146788990825687</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <v>4</v>
+      </c>
+      <c r="B115" s="6">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="C115" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D115" s="6">
+        <v>166</v>
+      </c>
+      <c r="E115" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F115">
+        <v>0.5528206990258796</v>
+      </c>
+      <c r="G115" s="12">
+        <v>4.9952999999999997E-2</v>
+      </c>
+      <c r="H115">
+        <v>11.066816788298594</v>
+      </c>
+      <c r="I115">
+        <v>11.066816788298594</v>
+      </c>
+      <c r="J115">
+        <v>37</v>
+      </c>
+      <c r="K115">
+        <v>147</v>
+      </c>
+      <c r="L115">
+        <v>20.108695652173914</v>
+      </c>
+      <c r="M115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="5">
+        <v>1</v>
+      </c>
+      <c r="B116" s="5">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="C116" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D116" s="5">
+        <v>519</v>
+      </c>
+      <c r="E116" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F116">
+        <v>8.75232497756806E-2</v>
+      </c>
+      <c r="G116" s="12">
+        <v>7.6220000000000003E-3</v>
+      </c>
+      <c r="H116">
+        <v>11.482976879517265</v>
+      </c>
+      <c r="I116">
+        <v>11.482976879517265</v>
+      </c>
+      <c r="J116">
+        <v>31</v>
+      </c>
+      <c r="K116">
+        <v>118</v>
+      </c>
+      <c r="L116">
+        <v>20.80536912751678</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="5">
+        <v>3</v>
+      </c>
+      <c r="B117" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C117" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D117" s="5">
+        <v>831</v>
+      </c>
+      <c r="E117" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F117">
+        <v>5.9723230326418991E-2</v>
+      </c>
+      <c r="G117" s="12">
+        <v>7.4469999999999996E-3</v>
+      </c>
+      <c r="H117">
+        <v>8.0197704211654344</v>
+      </c>
+      <c r="I117">
+        <v>8.0197704211654344</v>
+      </c>
+      <c r="J117">
+        <v>55</v>
+      </c>
+      <c r="K117">
+        <v>25</v>
+      </c>
+      <c r="L117">
+        <v>68.75</v>
+      </c>
+      <c r="M117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="5">
+        <v>6</v>
+      </c>
+      <c r="B118" s="5">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="C118" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D118" s="5">
+        <v>1213</v>
+      </c>
+      <c r="E118" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F118">
+        <v>-1.6666806757135354E-2</v>
+      </c>
+      <c r="G118" s="12">
+        <v>2.726E-2</v>
+      </c>
+      <c r="H118">
+        <v>-0.61140156849359328</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>56</v>
+      </c>
+      <c r="K118">
+        <v>4</v>
+      </c>
+      <c r="L118">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD5C4F8-0AD5-4AA1-9810-9A1C920D07B8}">
+  <dimension ref="A1:C118"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G293" sqref="G293"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>Sheet2!M2</f>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>Sheet2!C2</f>
+        <v>250</v>
+      </c>
+      <c r="C2">
+        <f>Sheet2!H2</f>
+        <v>0.53965433738673352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>Sheet2!M3</f>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>Sheet2!C3</f>
+        <v>250</v>
+      </c>
+      <c r="C3">
+        <f>Sheet2!H3</f>
+        <v>0.1360848006757365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>Sheet2!M4</f>
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>Sheet2!C4</f>
+        <v>250</v>
+      </c>
+      <c r="C4">
+        <f>Sheet2!H4</f>
+        <v>-2.0438599638010384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>Sheet2!M5</f>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f>Sheet2!C5</f>
+        <v>250</v>
+      </c>
+      <c r="C5">
+        <f>Sheet2!H5</f>
+        <v>2.228876612857781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>Sheet2!M6</f>
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f>Sheet2!C6</f>
+        <v>250</v>
+      </c>
+      <c r="C6">
+        <f>Sheet2!H6</f>
+        <v>-1.7891526190398712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>Sheet2!M7</f>
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <f>Sheet2!C7</f>
+        <v>250</v>
+      </c>
+      <c r="C7">
+        <f>Sheet2!H7</f>
+        <v>3.0254780938860328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>Sheet2!M8</f>
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>Sheet2!C8</f>
+        <v>250</v>
+      </c>
+      <c r="C8">
+        <f>Sheet2!H8</f>
+        <v>-6.1664709373323259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>Sheet2!M9</f>
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <f>Sheet2!C9</f>
+        <v>250</v>
+      </c>
+      <c r="C9">
+        <f>Sheet2!H9</f>
+        <v>-1.5996618587744202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>Sheet2!M10</f>
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <f>Sheet2!C10</f>
+        <v>250</v>
+      </c>
+      <c r="C10">
+        <f>Sheet2!H10</f>
+        <v>-0.991722925310769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>Sheet2!M11</f>
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <f>Sheet2!C11</f>
+        <v>250</v>
+      </c>
+      <c r="C11">
+        <f>Sheet2!H11</f>
+        <v>0.80670245995110057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>Sheet2!M12</f>
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <f>Sheet2!C12</f>
+        <v>250</v>
+      </c>
+      <c r="C12">
+        <f>Sheet2!H12</f>
+        <v>-3.1867102426615106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>Sheet2!M13</f>
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <f>Sheet2!C13</f>
+        <v>250</v>
+      </c>
+      <c r="C13">
+        <f>Sheet2!H13</f>
+        <v>-0.71359754698470024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>Sheet2!M14</f>
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <f>Sheet2!C14</f>
+        <v>250</v>
+      </c>
+      <c r="C14">
+        <f>Sheet2!H14</f>
+        <v>-0.47745326540266286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>Sheet2!M15</f>
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f>Sheet2!C15</f>
+        <v>250</v>
+      </c>
+      <c r="C15">
+        <f>Sheet2!H15</f>
+        <v>-5.0252562835304966</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>Sheet2!M16</f>
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <f>Sheet2!C16</f>
+        <v>250</v>
+      </c>
+      <c r="C16">
+        <f>Sheet2!H16</f>
+        <v>4.4137782095313529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>Sheet2!M17</f>
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <f>Sheet2!C17</f>
+        <v>250</v>
+      </c>
+      <c r="C17">
+        <f>Sheet2!H17</f>
+        <v>23.538483122393306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>Sheet2!M18</f>
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <f>Sheet2!C18</f>
+        <v>250</v>
+      </c>
+      <c r="C18">
+        <f>Sheet2!H18</f>
+        <v>4.7580741851566772</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>Sheet2!M19</f>
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <f>Sheet2!C19</f>
+        <v>250</v>
+      </c>
+      <c r="C19">
+        <f>Sheet2!H19</f>
+        <v>-2.0843551760295558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>Sheet2!M20</f>
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <f>Sheet2!C20</f>
+        <v>250</v>
+      </c>
+      <c r="C20">
+        <f>Sheet2!H20</f>
+        <v>-0.71470382611958427</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>Sheet2!M21</f>
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <f>Sheet2!C21</f>
+        <v>500</v>
+      </c>
+      <c r="C21">
+        <f>Sheet2!H21</f>
+        <v>-8.4534551982329749</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>Sheet2!M22</f>
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <f>Sheet2!C22</f>
+        <v>500</v>
+      </c>
+      <c r="C22">
+        <f>Sheet2!H22</f>
+        <v>5.7791463127666791</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>Sheet2!M23</f>
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <f>Sheet2!C23</f>
+        <v>500</v>
+      </c>
+      <c r="C23">
+        <f>Sheet2!H23</f>
+        <v>6.5082772634436532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>Sheet2!M24</f>
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <f>Sheet2!C24</f>
+        <v>500</v>
+      </c>
+      <c r="C24">
+        <f>Sheet2!H24</f>
+        <v>2.165863270434345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>Sheet2!M25</f>
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <f>Sheet2!C25</f>
+        <v>500</v>
+      </c>
+      <c r="C25">
+        <f>Sheet2!H25</f>
+        <v>14.568516943813922</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>Sheet2!M26</f>
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <f>Sheet2!C26</f>
+        <v>500</v>
+      </c>
+      <c r="C26">
+        <f>Sheet2!H26</f>
+        <v>-0.19899370229822036</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>Sheet2!M27</f>
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <f>Sheet2!C27</f>
+        <v>500</v>
+      </c>
+      <c r="C27">
+        <f>Sheet2!H27</f>
+        <v>-3.6417069109170854</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>Sheet2!M28</f>
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <f>Sheet2!C28</f>
+        <v>500</v>
+      </c>
+      <c r="C28">
+        <f>Sheet2!H28</f>
+        <v>-1.3391861941411634</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>Sheet2!M29</f>
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <f>Sheet2!C29</f>
+        <v>500</v>
+      </c>
+      <c r="C29">
+        <f>Sheet2!H29</f>
+        <v>15.451171310312205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>Sheet2!M30</f>
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <f>Sheet2!C30</f>
+        <v>500</v>
+      </c>
+      <c r="C30">
+        <f>Sheet2!H30</f>
+        <v>-2.0100301319072722</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>Sheet2!M31</f>
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <f>Sheet2!C31</f>
+        <v>500</v>
+      </c>
+      <c r="C31">
+        <f>Sheet2!H31</f>
+        <v>-0.72693167446714668</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>Sheet2!M32</f>
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <f>Sheet2!C32</f>
+        <v>500</v>
+      </c>
+      <c r="C32">
+        <f>Sheet2!H32</f>
+        <v>-0.35694474964406603</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>Sheet2!M33</f>
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <f>Sheet2!C33</f>
+        <v>500</v>
+      </c>
+      <c r="C33">
+        <f>Sheet2!H33</f>
+        <v>-1.5716810231237086</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>Sheet2!M34</f>
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <f>Sheet2!C34</f>
+        <v>500</v>
+      </c>
+      <c r="C34">
+        <f>Sheet2!H34</f>
+        <v>-0.14466923649166386</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>Sheet2!M35</f>
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <f>Sheet2!C35</f>
+        <v>500</v>
+      </c>
+      <c r="C35">
+        <f>Sheet2!H35</f>
+        <v>-4.8012572260787731</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>Sheet2!M36</f>
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <f>Sheet2!C36</f>
+        <v>500</v>
+      </c>
+      <c r="C36">
+        <f>Sheet2!H36</f>
+        <v>-1.1735378319805831</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>Sheet2!M37</f>
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <f>Sheet2!C37</f>
+        <v>500</v>
+      </c>
+      <c r="C37">
+        <f>Sheet2!H37</f>
+        <v>-1.1521979406053682</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>Sheet2!M38</f>
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <f>Sheet2!C38</f>
+        <v>500</v>
+      </c>
+      <c r="C38">
+        <f>Sheet2!H38</f>
+        <v>-2.1716758737118576</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>Sheet2!M39</f>
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <f>Sheet2!C39</f>
+        <v>750</v>
+      </c>
+      <c r="C39">
+        <f>Sheet2!H39</f>
+        <v>-10.618577826541681</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>Sheet2!M40</f>
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <f>Sheet2!C40</f>
+        <v>750</v>
+      </c>
+      <c r="C40">
+        <f>Sheet2!H40</f>
+        <v>-1.0349484401490152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f>Sheet2!M41</f>
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <f>Sheet2!C41</f>
+        <v>750</v>
+      </c>
+      <c r="C41">
+        <f>Sheet2!H41</f>
+        <v>-8.4423754033730862</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f>Sheet2!M42</f>
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <f>Sheet2!C42</f>
+        <v>750</v>
+      </c>
+      <c r="C42">
+        <f>Sheet2!H42</f>
+        <v>-0.34548639026251687</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>Sheet2!M43</f>
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <f>Sheet2!C43</f>
+        <v>750</v>
+      </c>
+      <c r="C43">
+        <f>Sheet2!H43</f>
+        <v>0.25511912534533093</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>Sheet2!M44</f>
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <f>Sheet2!C44</f>
+        <v>750</v>
+      </c>
+      <c r="C44">
+        <f>Sheet2!H44</f>
+        <v>-0.27723744288475166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>Sheet2!M45</f>
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <f>Sheet2!C45</f>
+        <v>750</v>
+      </c>
+      <c r="C45">
+        <f>Sheet2!H45</f>
+        <v>-1.440014269134019</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f>Sheet2!M46</f>
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <f>Sheet2!C46</f>
+        <v>750</v>
+      </c>
+      <c r="C46">
+        <f>Sheet2!H46</f>
+        <v>2.4417800098101803</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f>Sheet2!M47</f>
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <f>Sheet2!C47</f>
+        <v>750</v>
+      </c>
+      <c r="C47">
+        <f>Sheet2!H47</f>
+        <v>4.221544272655426</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f>Sheet2!M48</f>
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <f>Sheet2!C48</f>
+        <v>750</v>
+      </c>
+      <c r="C48">
+        <f>Sheet2!H48</f>
+        <v>-3.209672455706353</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>Sheet2!M49</f>
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <f>Sheet2!C49</f>
+        <v>750</v>
+      </c>
+      <c r="C49">
+        <f>Sheet2!H49</f>
+        <v>-2.6161648743838688</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f>Sheet2!M50</f>
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <f>Sheet2!C50</f>
+        <v>750</v>
+      </c>
+      <c r="C50">
+        <f>Sheet2!H50</f>
+        <v>-0.77908904974995052</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>Sheet2!M51</f>
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <f>Sheet2!C51</f>
+        <v>750</v>
+      </c>
+      <c r="C51">
+        <f>Sheet2!H51</f>
+        <v>4.882360304934461</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f>Sheet2!M52</f>
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <f>Sheet2!C52</f>
+        <v>750</v>
+      </c>
+      <c r="C52">
+        <f>Sheet2!H52</f>
+        <v>-8.6770700636616898</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f>Sheet2!M53</f>
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <f>Sheet2!C53</f>
+        <v>1000</v>
+      </c>
+      <c r="C53">
+        <f>Sheet2!H53</f>
+        <v>-0.38593270341040015</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f>Sheet2!M54</f>
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <f>Sheet2!C54</f>
+        <v>1000</v>
+      </c>
+      <c r="C54">
+        <f>Sheet2!H54</f>
+        <v>-0.50059479639062243</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f>Sheet2!M55</f>
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <f>Sheet2!C55</f>
+        <v>1000</v>
+      </c>
+      <c r="C55">
+        <f>Sheet2!H55</f>
+        <v>5.3265386015292853</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f>Sheet2!M56</f>
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <f>Sheet2!C56</f>
+        <v>1000</v>
+      </c>
+      <c r="C56">
+        <f>Sheet2!H56</f>
+        <v>-0.22041025279061441</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>Sheet2!M57</f>
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <f>Sheet2!C57</f>
+        <v>1000</v>
+      </c>
+      <c r="C57">
+        <f>Sheet2!H57</f>
+        <v>18.77832723286922</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f>Sheet2!M58</f>
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <f>Sheet2!C58</f>
+        <v>1000</v>
+      </c>
+      <c r="C58">
+        <f>Sheet2!H58</f>
+        <v>0.1430588281044439</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>Sheet2!M59</f>
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <f>Sheet2!C59</f>
+        <v>1000</v>
+      </c>
+      <c r="C59">
+        <f>Sheet2!H59</f>
+        <v>-3.385534188089657</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f>Sheet2!M60</f>
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <f>Sheet2!C60</f>
+        <v>1000</v>
+      </c>
+      <c r="C60">
+        <f>Sheet2!H60</f>
+        <v>-2.287758590674942</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>Sheet2!M61</f>
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <f>Sheet2!C61</f>
+        <v>1000</v>
+      </c>
+      <c r="C61">
+        <f>Sheet2!H61</f>
+        <v>8.0490361185418813</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f>Sheet2!M62</f>
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <f>Sheet2!C62</f>
+        <v>1000</v>
+      </c>
+      <c r="C62">
+        <f>Sheet2!H62</f>
+        <v>-0.15948004385658707</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f>Sheet2!M63</f>
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <f>Sheet2!C63</f>
+        <v>250</v>
+      </c>
+      <c r="C63">
+        <f>Sheet2!H63</f>
+        <v>-2.405943601668135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f>Sheet2!M64</f>
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <f>Sheet2!C64</f>
+        <v>250</v>
+      </c>
+      <c r="C64">
+        <f>Sheet2!H64</f>
+        <v>0.20875920086205571</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f>Sheet2!M65</f>
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <f>Sheet2!C65</f>
+        <v>250</v>
+      </c>
+      <c r="C65">
+        <f>Sheet2!H65</f>
+        <v>-0.68635278914973341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f>Sheet2!M66</f>
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <f>Sheet2!C66</f>
+        <v>250</v>
+      </c>
+      <c r="C66">
+        <f>Sheet2!H66</f>
+        <v>-0.69658770345774523</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f>Sheet2!M67</f>
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <f>Sheet2!C67</f>
+        <v>250</v>
+      </c>
+      <c r="C67">
+        <f>Sheet2!H67</f>
+        <v>-11.517360663197834</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f>Sheet2!M68</f>
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <f>Sheet2!C68</f>
+        <v>250</v>
+      </c>
+      <c r="C68">
+        <f>Sheet2!H68</f>
+        <v>2.1141256093059244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f>Sheet2!M69</f>
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <f>Sheet2!C69</f>
+        <v>250</v>
+      </c>
+      <c r="C69">
+        <f>Sheet2!H69</f>
+        <v>0.82810794236632868</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f>Sheet2!M70</f>
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <f>Sheet2!C70</f>
+        <v>250</v>
+      </c>
+      <c r="C70">
+        <f>Sheet2!H70</f>
+        <v>-1.7099721398465719</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f>Sheet2!M71</f>
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <f>Sheet2!C71</f>
+        <v>250</v>
+      </c>
+      <c r="C71">
+        <f>Sheet2!H71</f>
+        <v>0.13803768511342188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f>Sheet2!M72</f>
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <f>Sheet2!C72</f>
+        <v>250</v>
+      </c>
+      <c r="C72">
+        <f>Sheet2!H72</f>
+        <v>4.0584750663401401</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f>Sheet2!M73</f>
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <f>Sheet2!C73</f>
+        <v>250</v>
+      </c>
+      <c r="C73">
+        <f>Sheet2!H73</f>
+        <v>6.995223680711069</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f>Sheet2!M74</f>
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <f>Sheet2!C74</f>
+        <v>250</v>
+      </c>
+      <c r="C74">
+        <f>Sheet2!H74</f>
+        <v>7.4554326133646143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f>Sheet2!M75</f>
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <f>Sheet2!C75</f>
+        <v>250</v>
+      </c>
+      <c r="C75">
+        <f>Sheet2!H75</f>
+        <v>3.9815671858441863</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f>Sheet2!M76</f>
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <f>Sheet2!C76</f>
+        <v>250</v>
+      </c>
+      <c r="C76">
+        <f>Sheet2!H76</f>
+        <v>6.6258379239073149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f>Sheet2!M77</f>
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <f>Sheet2!C77</f>
+        <v>250</v>
+      </c>
+      <c r="C77">
+        <f>Sheet2!H77</f>
+        <v>19.851706461206316</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f>Sheet2!M78</f>
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <f>Sheet2!C78</f>
+        <v>250</v>
+      </c>
+      <c r="C78">
+        <f>Sheet2!H78</f>
+        <v>11.348418601910444</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f>Sheet2!M79</f>
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <f>Sheet2!C79</f>
+        <v>250</v>
+      </c>
+      <c r="C79">
+        <f>Sheet2!H79</f>
+        <v>2.2723266544510898</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f>Sheet2!M80</f>
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <f>Sheet2!C80</f>
+        <v>250</v>
+      </c>
+      <c r="C80">
+        <f>Sheet2!H80</f>
+        <v>6.0445759627291418</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f>Sheet2!M81</f>
+        <v>2</v>
+      </c>
+      <c r="B81">
+        <f>Sheet2!C81</f>
+        <v>250</v>
+      </c>
+      <c r="C81">
+        <f>Sheet2!H81</f>
+        <v>20.116544260646592</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f>Sheet2!M82</f>
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <f>Sheet2!C82</f>
+        <v>250</v>
+      </c>
+      <c r="C82">
+        <f>Sheet2!H82</f>
+        <v>-5.9598036342184368</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f>Sheet2!M83</f>
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <f>Sheet2!C83</f>
+        <v>500</v>
+      </c>
+      <c r="C83">
+        <f>Sheet2!H83</f>
+        <v>-3.5379027590734524</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f>Sheet2!M84</f>
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <f>Sheet2!C84</f>
+        <v>500</v>
+      </c>
+      <c r="C84">
+        <f>Sheet2!H84</f>
+        <v>1.9189308672850325</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f>Sheet2!M85</f>
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <f>Sheet2!C85</f>
+        <v>500</v>
+      </c>
+      <c r="C85">
+        <f>Sheet2!H85</f>
+        <v>5.919838062784291</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f>Sheet2!M86</f>
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <f>Sheet2!C86</f>
+        <v>500</v>
+      </c>
+      <c r="C86">
+        <f>Sheet2!H86</f>
+        <v>5.3054445115983899</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f>Sheet2!M87</f>
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <f>Sheet2!C87</f>
+        <v>500</v>
+      </c>
+      <c r="C87">
+        <f>Sheet2!H87</f>
+        <v>-1.5503028279971152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f>Sheet2!M88</f>
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <f>Sheet2!C88</f>
+        <v>500</v>
+      </c>
+      <c r="C88">
+        <f>Sheet2!H88</f>
+        <v>-0.72862831948331364</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f>Sheet2!M89</f>
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <f>Sheet2!C89</f>
+        <v>500</v>
+      </c>
+      <c r="C89">
+        <f>Sheet2!H89</f>
+        <v>3.4232683116040272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f>Sheet2!M90</f>
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <f>Sheet2!C90</f>
+        <v>500</v>
+      </c>
+      <c r="C90">
+        <f>Sheet2!H90</f>
+        <v>-4.5451139767889712</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f>Sheet2!M91</f>
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <f>Sheet2!C91</f>
+        <v>500</v>
+      </c>
+      <c r="C91">
+        <f>Sheet2!H91</f>
+        <v>0.40850414385049533</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f>Sheet2!M92</f>
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <f>Sheet2!C92</f>
+        <v>500</v>
+      </c>
+      <c r="C92">
+        <f>Sheet2!H92</f>
+        <v>-4.8602275579594494</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f>Sheet2!M93</f>
+        <v>2</v>
+      </c>
+      <c r="B93">
+        <f>Sheet2!C93</f>
+        <v>500</v>
+      </c>
+      <c r="C93">
+        <f>Sheet2!H93</f>
+        <v>20.86441501678863</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f>Sheet2!M94</f>
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <f>Sheet2!C94</f>
+        <v>500</v>
+      </c>
+      <c r="C94">
+        <f>Sheet2!H94</f>
+        <v>10.713859724764738</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f>Sheet2!M95</f>
+        <v>2</v>
+      </c>
+      <c r="B95">
+        <f>Sheet2!C95</f>
+        <v>500</v>
+      </c>
+      <c r="C95">
+        <f>Sheet2!H95</f>
+        <v>18.42276745819925</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f>Sheet2!M96</f>
+        <v>2</v>
+      </c>
+      <c r="B96">
+        <f>Sheet2!C96</f>
+        <v>500</v>
+      </c>
+      <c r="C96">
+        <f>Sheet2!H96</f>
+        <v>3.2697467688002133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f>Sheet2!M97</f>
+        <v>2</v>
+      </c>
+      <c r="B97">
+        <f>Sheet2!C97</f>
+        <v>500</v>
+      </c>
+      <c r="C97">
+        <f>Sheet2!H97</f>
+        <v>1.7439497342561874</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f>Sheet2!M98</f>
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <f>Sheet2!C98</f>
+        <v>500</v>
+      </c>
+      <c r="C98">
+        <f>Sheet2!H98</f>
+        <v>4.5198081043262555</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f>Sheet2!M99</f>
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <f>Sheet2!C99</f>
+        <v>500</v>
+      </c>
+      <c r="C99">
+        <f>Sheet2!H99</f>
+        <v>4.2332714353672447</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f>Sheet2!M100</f>
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <f>Sheet2!C100</f>
+        <v>750</v>
+      </c>
+      <c r="C100">
+        <f>Sheet2!H100</f>
+        <v>5.6975591025823427</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f>Sheet2!M101</f>
+        <v>2</v>
+      </c>
+      <c r="B101">
+        <f>Sheet2!C101</f>
+        <v>750</v>
+      </c>
+      <c r="C101">
+        <f>Sheet2!H101</f>
+        <v>5.4396397869300941</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f>Sheet2!M102</f>
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <f>Sheet2!C102</f>
+        <v>750</v>
+      </c>
+      <c r="C102">
+        <f>Sheet2!H102</f>
+        <v>-10.218987478360702</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f>Sheet2!M103</f>
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <f>Sheet2!C103</f>
+        <v>750</v>
+      </c>
+      <c r="C103">
+        <f>Sheet2!H103</f>
+        <v>13.220475009877543</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f>Sheet2!M104</f>
+        <v>2</v>
+      </c>
+      <c r="B104">
+        <f>Sheet2!C104</f>
+        <v>750</v>
+      </c>
+      <c r="C104">
+        <f>Sheet2!H104</f>
+        <v>2.0408144228238334</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f>Sheet2!M105</f>
+        <v>2</v>
+      </c>
+      <c r="B105">
+        <f>Sheet2!C105</f>
+        <v>750</v>
+      </c>
+      <c r="C105">
+        <f>Sheet2!H105</f>
+        <v>-8.0424613227651542E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f>Sheet2!M106</f>
+        <v>2</v>
+      </c>
+      <c r="B106">
+        <f>Sheet2!C106</f>
+        <v>750</v>
+      </c>
+      <c r="C106">
+        <f>Sheet2!H106</f>
+        <v>22.602449089093358</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f>Sheet2!M107</f>
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <f>Sheet2!C107</f>
+        <v>750</v>
+      </c>
+      <c r="C107">
+        <f>Sheet2!H107</f>
+        <v>-5.4849351324113078</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f>Sheet2!M108</f>
+        <v>2</v>
+      </c>
+      <c r="B108">
+        <f>Sheet2!C108</f>
+        <v>750</v>
+      </c>
+      <c r="C108">
+        <f>Sheet2!H108</f>
+        <v>-1.1598901308241689</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f>Sheet2!M109</f>
+        <v>2</v>
+      </c>
+      <c r="B109">
+        <f>Sheet2!C109</f>
+        <v>750</v>
+      </c>
+      <c r="C109">
+        <f>Sheet2!H109</f>
+        <v>11.704126241631196</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f>Sheet2!M110</f>
+        <v>2</v>
+      </c>
+      <c r="B110">
+        <f>Sheet2!C110</f>
+        <v>750</v>
+      </c>
+      <c r="C110">
+        <f>Sheet2!H110</f>
+        <v>9.6966796594555227</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f>Sheet2!M111</f>
+        <v>2</v>
+      </c>
+      <c r="B111">
+        <f>Sheet2!C111</f>
+        <v>750</v>
+      </c>
+      <c r="C111">
+        <f>Sheet2!H111</f>
+        <v>20.931409505555681</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f>Sheet2!M112</f>
+        <v>2</v>
+      </c>
+      <c r="B112">
+        <f>Sheet2!C112</f>
+        <v>1000</v>
+      </c>
+      <c r="C112">
+        <f>Sheet2!H112</f>
+        <v>-4.4787464849346721</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f>Sheet2!M113</f>
+        <v>2</v>
+      </c>
+      <c r="B113">
+        <f>Sheet2!C113</f>
+        <v>1000</v>
+      </c>
+      <c r="C113">
+        <f>Sheet2!H113</f>
+        <v>7.6064557543197973</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f>Sheet2!M114</f>
+        <v>2</v>
+      </c>
+      <c r="B114">
+        <f>Sheet2!C114</f>
+        <v>1000</v>
+      </c>
+      <c r="C114">
+        <f>Sheet2!H114</f>
+        <v>5.0964742795346831</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f>Sheet2!M115</f>
+        <v>2</v>
+      </c>
+      <c r="B115">
+        <f>Sheet2!C115</f>
+        <v>1000</v>
+      </c>
+      <c r="C115">
+        <f>Sheet2!H115</f>
+        <v>11.066816788298594</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f>Sheet2!M116</f>
+        <v>2</v>
+      </c>
+      <c r="B116">
+        <f>Sheet2!C116</f>
+        <v>1000</v>
+      </c>
+      <c r="C116">
+        <f>Sheet2!H116</f>
+        <v>11.482976879517265</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f>Sheet2!M117</f>
+        <v>2</v>
+      </c>
+      <c r="B117">
+        <f>Sheet2!C117</f>
+        <v>1000</v>
+      </c>
+      <c r="C117">
+        <f>Sheet2!H117</f>
+        <v>8.0197704211654344</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f>Sheet2!M118</f>
+        <v>2</v>
+      </c>
+      <c r="B118">
+        <f>Sheet2!C118</f>
+        <v>1000</v>
+      </c>
+      <c r="C118">
+        <f>Sheet2!H118</f>
+        <v>-0.61140156849359328</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>